--- a/trend_results/Rivers/RangitikeiatPukeokahu_8c9572fbb5.xlsx
+++ b/trend_results/Rivers/RangitikeiatPukeokahu_8c9572fbb5.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W43"/>
+  <dimension ref="A1:W57"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,7 +441,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>variable</t>
+          <t>parameter name</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
@@ -755,7 +755,7 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>0.6215405335684639</v>
+        <v>0.378459466431536</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -1289,7 +1289,7 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>0.927865896122149</v>
+        <v>0.07213410387785101</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1322,7 +1322,7 @@
       </c>
       <c r="P10" t="inlineStr">
         <is>
-          <t>Very likely increasing</t>
+          <t>Very unlikely increasing</t>
         </is>
       </c>
       <c r="Q10" t="n">
@@ -2013,7 +2013,7 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>0.639153782487268</v>
+        <v>0.360846217512732</v>
       </c>
       <c r="G18" t="n">
         <v>0</v>
@@ -2559,7 +2559,7 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>0.720631060160117</v>
+        <v>0.279368939839883</v>
       </c>
       <c r="G24" t="n">
         <v>0</v>
@@ -2592,7 +2592,7 @@
       </c>
       <c r="P24" t="inlineStr">
         <is>
-          <t>Likely increasing</t>
+          <t>Unlikely increasing</t>
         </is>
       </c>
       <c r="Q24" t="n">
@@ -3086,14 +3086,14 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Visual Clarity</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
@@ -3101,31 +3101,31 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>0.04022663524769</v>
+        <v>0.0004099731915852</v>
       </c>
       <c r="G30" t="n">
-        <v>0.0465116279069767</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>0.562790697674419</v>
+        <v>0.699248120300752</v>
       </c>
       <c r="I30" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>2.7</v>
+        <v>2.5</v>
       </c>
       <c r="K30" t="n">
-        <v>-0.0380958026904472</v>
+        <v>0.182822893286554</v>
       </c>
       <c r="L30" t="n">
-        <v>-0.0669421884418393</v>
+        <v>0.0981217718025377</v>
       </c>
       <c r="M30" t="n">
-        <v>-0.006786266559988</v>
+        <v>0.277448408825045</v>
       </c>
       <c r="N30" t="n">
-        <v>-1.41095565520175</v>
+        <v>7.31291573146218</v>
       </c>
       <c r="O30" t="inlineStr">
         <is>
@@ -3134,7 +3134,7 @@
       </c>
       <c r="P30" t="inlineStr">
         <is>
-          <t>Extremely unlikely improving</t>
+          <t>Exceptionally unlikely improving</t>
         </is>
       </c>
       <c r="Q30" t="n">
@@ -3165,7 +3165,7 @@
       </c>
       <c r="W30" t="inlineStr">
         <is>
-          <t>m</t>
+          <t>mg/m2</t>
         </is>
       </c>
     </row>
@@ -3177,46 +3177,46 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Dissolved Reactive Phosphorus</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D31" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope influenced by censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>0.0096052883231152</v>
+        <v>0.311203420101957</v>
       </c>
       <c r="G31" t="n">
-        <v>0.305084745762712</v>
+        <v>0.0641025641025641</v>
       </c>
       <c r="H31" t="n">
-        <v>0.08050847457627119</v>
+        <v>0.493589743589744</v>
       </c>
       <c r="I31" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="J31" t="n">
-        <v>0.006</v>
+        <v>2.665</v>
       </c>
       <c r="K31" t="n">
-        <v>0</v>
+        <v>-0.025802590266876</v>
       </c>
       <c r="L31" t="n">
-        <v>0</v>
+        <v>-0.0718684994391032</v>
       </c>
       <c r="M31" t="n">
-        <v>0.0001166001596169</v>
+        <v>0.0289962942731432</v>
       </c>
       <c r="N31" t="n">
-        <v>0</v>
+        <v>-0.968202261421238</v>
       </c>
       <c r="O31" t="inlineStr">
         <is>
@@ -3225,7 +3225,7 @@
       </c>
       <c r="P31" t="inlineStr">
         <is>
-          <t>Exceptionally unlikely improving</t>
+          <t>Unlikely improving</t>
         </is>
       </c>
       <c r="Q31" t="n">
@@ -3256,7 +3256,7 @@
       </c>
       <c r="W31" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>m</t>
         </is>
       </c>
     </row>
@@ -3268,46 +3268,46 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>E. coli</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D32" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope influenced by censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>0.271941198686384</v>
+        <v>0.010107563724889</v>
       </c>
       <c r="G32" t="n">
-        <v>0.038135593220339</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0.355932203389831</v>
+        <v>0.839080459770115</v>
       </c>
       <c r="I32" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>23.5</v>
+        <v>11.06</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>-0.0301030219780219</v>
       </c>
       <c r="L32" t="n">
-        <v>-0.157164371772806</v>
+        <v>-0.0501717032967026</v>
       </c>
       <c r="M32" t="n">
-        <v>0.529734722176151</v>
+        <v>-0.0066895604395603</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>-0.27217922222443</v>
       </c>
       <c r="O32" t="inlineStr">
         <is>
@@ -3316,7 +3316,7 @@
       </c>
       <c r="P32" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>Extremely unlikely increasing</t>
         </is>
       </c>
       <c r="Q32" t="n">
@@ -3347,7 +3347,7 @@
       </c>
       <c r="W32" t="inlineStr">
         <is>
-          <t>E. coli/100 mL</t>
+          <t>g/m3</t>
         </is>
       </c>
     </row>
@@ -3359,46 +3359,46 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Ammoniacal Nitrogen (NH4)</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D33" t="b">
         <v>0</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope based on two censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>0.6655912234917311</v>
+        <v>6.25690941616893e-06</v>
       </c>
       <c r="G33" t="n">
-        <v>0.878378378378378</v>
+        <v>0.299435028248588</v>
       </c>
       <c r="H33" t="n">
-        <v>0.193693693693694</v>
+        <v>0.07909604519774011</v>
       </c>
       <c r="I33" t="n">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="J33" t="n">
-        <v>0.005</v>
+        <v>0.006</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>0.0002339097261924</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>0.0003572529527459</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>3.89849543654097</v>
       </c>
       <c r="O33" t="inlineStr">
         <is>
@@ -3407,7 +3407,7 @@
       </c>
       <c r="P33" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Exceptionally unlikely improving</t>
         </is>
       </c>
       <c r="Q33" t="n">
@@ -3450,46 +3450,46 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Nitrate Nitrogen (NO3)</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D34" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope influenced by censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v>0.804615177577352</v>
+        <v>0.205623046915619</v>
       </c>
       <c r="G34" t="n">
-        <v>0.391705069124424</v>
+        <v>0.0225988700564972</v>
       </c>
       <c r="H34" t="n">
-        <v>0.327188940092166</v>
+        <v>0.418079096045198</v>
       </c>
       <c r="I34" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J34" t="n">
-        <v>0.012</v>
+        <v>25</v>
       </c>
       <c r="K34" t="n">
-        <v>-0.0002650611678488</v>
+        <v>0.241037242011232</v>
       </c>
       <c r="L34" t="n">
-        <v>-0.0004416921960657</v>
+        <v>-0.173584607110968</v>
       </c>
       <c r="M34" t="n">
-        <v>0</v>
+        <v>0.9945448726735</v>
       </c>
       <c r="N34" t="n">
-        <v>-2.20884306540744</v>
+        <v>0.964148968044929</v>
       </c>
       <c r="O34" t="inlineStr">
         <is>
@@ -3498,7 +3498,7 @@
       </c>
       <c r="P34" t="inlineStr">
         <is>
-          <t>Likely improving</t>
+          <t>Unlikely improving</t>
         </is>
       </c>
       <c r="Q34" t="n">
@@ -3529,7 +3529,7 @@
       </c>
       <c r="W34" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>E. coli/100 mL</t>
         </is>
       </c>
     </row>
@@ -3541,46 +3541,46 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>SIN (Soluble Inorganic nitrogen)</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D35" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>ok</t>
+          <t>WARNING: Sen slope based on two censored values</t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>0.9985216818341</v>
+        <v>0.9519645677892981</v>
       </c>
       <c r="G35" t="n">
-        <v>0.111607142857143</v>
+        <v>0.863636363636364</v>
       </c>
       <c r="H35" t="n">
-        <v>0.339285714285714</v>
+        <v>0.215909090909091</v>
       </c>
       <c r="I35" t="n">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="J35" t="n">
-        <v>0.022</v>
+        <v>0.005</v>
       </c>
       <c r="K35" t="n">
-        <v>-0.0005000760658733</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>-0.0007503423875827</v>
+        <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>-0.0002608755022971</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>-2.27307302669716</v>
+        <v>0</v>
       </c>
       <c r="O35" t="inlineStr">
         <is>
@@ -3589,7 +3589,7 @@
       </c>
       <c r="P35" t="inlineStr">
         <is>
-          <t>Virtually certain improving</t>
+          <t>Extremely likely improving</t>
         </is>
       </c>
       <c r="Q35" t="n">
@@ -3620,7 +3620,7 @@
       </c>
       <c r="W35" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -3632,46 +3632,46 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Turbidity</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D36" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>ok</t>
+          <t>WARNING: Sen slope influenced by censored values</t>
         </is>
       </c>
       <c r="F36" t="n">
-        <v>0.0195478192601008</v>
+        <v>0.822960811164394</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>0.670967741935484</v>
       </c>
       <c r="H36" t="n">
-        <v>0.745762711864407</v>
+        <v>0.0580645161290323</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J36" t="n">
-        <v>0.867</v>
+        <v>0.001</v>
       </c>
       <c r="K36" t="n">
-        <v>0.009060983530891799</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>0.0014599040465851</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>0.0166678899650522</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>1.04509613966457</v>
+        <v>0</v>
       </c>
       <c r="O36" t="inlineStr">
         <is>
@@ -3680,7 +3680,7 @@
       </c>
       <c r="P36" t="inlineStr">
         <is>
-          <t>Extremely unlikely improving</t>
+          <t>Likely improving</t>
         </is>
       </c>
       <c r="Q36" t="n">
@@ -3711,7 +3711,7 @@
       </c>
       <c r="W36" t="inlineStr">
         <is>
-          <t>NTU/FNU</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -3723,46 +3723,46 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>ASPM (Macroinvertebrate Average Score Per Metric)</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="D37" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>ok</t>
+          <t>WARNING: Sen slope influenced by censored values</t>
         </is>
       </c>
       <c r="F37" t="n">
-        <v>0.40324797025367</v>
+        <v>0.270192168444704</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>0.316455696202532</v>
       </c>
       <c r="H37" t="n">
+        <v>0.39873417721519</v>
+      </c>
+      <c r="I37" t="n">
         <v>1</v>
       </c>
-      <c r="I37" t="n">
-        <v>0</v>
-      </c>
       <c r="J37" t="n">
-        <v>0.57</v>
+        <v>0.0115</v>
       </c>
       <c r="K37" t="n">
-        <v>-0.0312674835448989</v>
+        <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>-0.08990904810023929</v>
+        <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>0.0190911753572859</v>
+        <v>0</v>
       </c>
       <c r="N37" t="n">
-        <v>-5.48552342892963</v>
+        <v>0</v>
       </c>
       <c r="O37" t="inlineStr">
         <is>
@@ -3771,7 +3771,7 @@
       </c>
       <c r="P37" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Unlikely improving</t>
         </is>
       </c>
       <c r="Q37" t="n">
@@ -3800,7 +3800,11 @@
           <t>Rang_2a</t>
         </is>
       </c>
-      <c r="W37" t="inlineStr"/>
+      <c r="W37" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -3810,11 +3814,11 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>MCI (Macroinvertebrate Community Index)</t>
+          <t>pH</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="D38" t="b">
         <v>0</v>
@@ -3825,31 +3829,31 @@
         </is>
       </c>
       <c r="F38" t="n">
-        <v>0.768783636774762</v>
+        <v>0.999993085054796</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>1</v>
+        <v>0.611428571428571</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>118</v>
+        <v>7.87</v>
       </c>
       <c r="K38" t="n">
-        <v>0.763117432320975</v>
+        <v>0.0323881499395405</v>
       </c>
       <c r="L38" t="n">
-        <v>-12.8794564649799</v>
+        <v>0.0208714285714286</v>
       </c>
       <c r="M38" t="n">
-        <v>7.75888093989273</v>
+        <v>0.044463215829999</v>
       </c>
       <c r="N38" t="n">
-        <v>0.646709688407605</v>
+        <v>0.411539389320717</v>
       </c>
       <c r="O38" t="inlineStr">
         <is>
@@ -3858,7 +3862,7 @@
       </c>
       <c r="P38" t="inlineStr">
         <is>
-          <t>Likely improving</t>
+          <t>Virtually certain increasing</t>
         </is>
       </c>
       <c r="Q38" t="n">
@@ -3897,14 +3901,14 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>QMCI (Quantitative Macroinvertebrate Community Index)</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="D39" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
@@ -3912,31 +3916,31 @@
         </is>
       </c>
       <c r="F39" t="n">
-        <v>0.110335680959923</v>
+        <v>0.964087630583478</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>0.0451977401129944</v>
       </c>
       <c r="H39" t="n">
-        <v>1</v>
+        <v>0.395480225988701</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J39" t="n">
-        <v>6.18</v>
+        <v>0.02</v>
       </c>
       <c r="K39" t="n">
-        <v>-0.401707265710704</v>
+        <v>-0.0003574574280681</v>
       </c>
       <c r="L39" t="n">
-        <v>-0.903871997272985</v>
+        <v>-0.0006661198437257</v>
       </c>
       <c r="M39" t="n">
-        <v>0.0921679084018449</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>-6.50011756813436</v>
+        <v>-1.78728714034058</v>
       </c>
       <c r="O39" t="inlineStr">
         <is>
@@ -3945,7 +3949,7 @@
       </c>
       <c r="P39" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>Extremely likely improving</t>
         </is>
       </c>
       <c r="Q39" t="n">
@@ -3974,7 +3978,11 @@
           <t>Rang_2a</t>
         </is>
       </c>
-      <c r="W39" t="inlineStr"/>
+      <c r="W39" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -3984,14 +3992,14 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>ASPM (Macroinvertebrate Average Score Per Metric)</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D40" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
@@ -3999,31 +4007,31 @@
         </is>
       </c>
       <c r="F40" t="n">
-        <v>0.036819135060151</v>
+        <v>0.998590934099186</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>0.0564971751412429</v>
       </c>
       <c r="H40" t="n">
+        <v>0.389830508474576</v>
+      </c>
+      <c r="I40" t="n">
         <v>1</v>
       </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
       <c r="J40" t="n">
-        <v>0.579</v>
+        <v>0.09</v>
       </c>
       <c r="K40" t="n">
-        <v>-0.0193064800313234</v>
+        <v>-0.0023139068705978</v>
       </c>
       <c r="L40" t="n">
-        <v>-0.0315828653256116</v>
+        <v>-0.0036424831712789</v>
       </c>
       <c r="M40" t="n">
-        <v>-0.0007544516270396</v>
+        <v>-0.0007697576396206</v>
       </c>
       <c r="N40" t="n">
-        <v>-3.33445250972771</v>
+        <v>-2.57100763399764</v>
       </c>
       <c r="O40" t="inlineStr">
         <is>
@@ -4032,7 +4040,7 @@
       </c>
       <c r="P40" t="inlineStr">
         <is>
-          <t>Extremely unlikely improving</t>
+          <t>Virtually certain improving</t>
         </is>
       </c>
       <c r="Q40" t="n">
@@ -4061,7 +4069,11 @@
           <t>Rang_2a</t>
         </is>
       </c>
-      <c r="W40" t="inlineStr"/>
+      <c r="W40" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -4071,43 +4083,43 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>MCI (Macroinvertebrate Community Index)</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D41" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope based on tied non-censored values</t>
+          <t>WARNING: Sen slope influenced by censored values</t>
         </is>
       </c>
       <c r="F41" t="n">
-        <v>0.5</v>
+        <v>0.681868210269797</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>0.0564971751412429</v>
       </c>
       <c r="H41" t="n">
-        <v>0.7</v>
+        <v>0.186440677966102</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J41" t="n">
-        <v>114</v>
+        <v>0.011</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>-1.83184111547544</v>
+        <v>-0.0001671906790824</v>
       </c>
       <c r="M41" t="n">
-        <v>1.00976688775975</v>
+        <v>0.0001432445302803</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
@@ -4119,7 +4131,7 @@
       </c>
       <c r="P41" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Likely improving</t>
         </is>
       </c>
       <c r="Q41" t="n">
@@ -4148,7 +4160,11 @@
           <t>Rang_2a</t>
         </is>
       </c>
-      <c r="W41" t="inlineStr"/>
+      <c r="W41" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -4158,14 +4174,14 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>QMCI (Quantitative Macroinvertebrate Community Index)</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D42" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
@@ -4173,31 +4189,31 @@
         </is>
       </c>
       <c r="F42" t="n">
-        <v>0.570986171506239</v>
+        <v>0.12393590410302</v>
       </c>
       <c r="G42" t="n">
         <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>1</v>
+        <v>0.84180790960452</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>5.42</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="K42" t="n">
-        <v>0.051155462184874</v>
+        <v>0.0083020678275137</v>
       </c>
       <c r="L42" t="n">
-        <v>-0.254779288764067</v>
+        <v>-0.0049859571272815</v>
       </c>
       <c r="M42" t="n">
-        <v>0.204594847465853</v>
+        <v>0.0198990999150541</v>
       </c>
       <c r="N42" t="n">
-        <v>0.943827715588081</v>
+        <v>0.883198705054653</v>
       </c>
       <c r="O42" t="inlineStr">
         <is>
@@ -4206,7 +4222,7 @@
       </c>
       <c r="P42" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Unlikely improving</t>
         </is>
       </c>
       <c r="Q42" t="n">
@@ -4235,7 +4251,11 @@
           <t>Rang_2a</t>
         </is>
       </c>
-      <c r="W42" t="inlineStr"/>
+      <c r="W42" t="inlineStr">
+        <is>
+          <t>NTU/FNU</t>
+        </is>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -4245,14 +4265,14 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>MCI (Macroinvertebrate Community Index)</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C43" t="n">
         <v>20</v>
       </c>
       <c r="D43" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
@@ -4260,31 +4280,31 @@
         </is>
       </c>
       <c r="F43" t="n">
-        <v>0.155810538346123</v>
+        <v>0.04022663524769</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>0.0465116279069767</v>
       </c>
       <c r="H43" t="n">
-        <v>0.6</v>
+        <v>0.562790697674419</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J43" t="n">
-        <v>118.5</v>
+        <v>2.7</v>
       </c>
       <c r="K43" t="n">
-        <v>-0.232443889253716</v>
+        <v>-0.0380958026904472</v>
       </c>
       <c r="L43" t="n">
-        <v>-0.81910483030833</v>
+        <v>-0.0669421884418393</v>
       </c>
       <c r="M43" t="n">
-        <v>0.123255105180206</v>
+        <v>-0.006786266559988</v>
       </c>
       <c r="N43" t="n">
-        <v>-0.196155180804824</v>
+        <v>-1.41095565520175</v>
       </c>
       <c r="O43" t="inlineStr">
         <is>
@@ -4293,7 +4313,7 @@
       </c>
       <c r="P43" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>Extremely unlikely improving</t>
         </is>
       </c>
       <c r="Q43" t="n">
@@ -4322,7 +4342,1253 @@
           <t>Rang_2a</t>
         </is>
       </c>
-      <c r="W43" t="inlineStr"/>
+      <c r="W43" t="inlineStr">
+        <is>
+          <t>m</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Rangitikei at Pukeokahu</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>Dissolved Reactive Phosphorus</t>
+        </is>
+      </c>
+      <c r="C44" t="n">
+        <v>20</v>
+      </c>
+      <c r="D44" t="b">
+        <v>0</v>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>WARNING: Sen slope influenced by censored values</t>
+        </is>
+      </c>
+      <c r="F44" t="n">
+        <v>0.0096052883231152</v>
+      </c>
+      <c r="G44" t="n">
+        <v>0.305084745762712</v>
+      </c>
+      <c r="H44" t="n">
+        <v>0.08050847457627119</v>
+      </c>
+      <c r="I44" t="n">
+        <v>2</v>
+      </c>
+      <c r="J44" t="n">
+        <v>0.006</v>
+      </c>
+      <c r="K44" t="n">
+        <v>0</v>
+      </c>
+      <c r="L44" t="n">
+        <v>0</v>
+      </c>
+      <c r="M44" t="n">
+        <v>0.0001166001596169</v>
+      </c>
+      <c r="N44" t="n">
+        <v>0</v>
+      </c>
+      <c r="O44" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P44" t="inlineStr">
+        <is>
+          <t>Exceptionally unlikely improving</t>
+        </is>
+      </c>
+      <c r="Q44" t="n">
+        <v>1861326.612</v>
+      </c>
+      <c r="R44" t="n">
+        <v>5609200.146</v>
+      </c>
+      <c r="S44" t="inlineStr">
+        <is>
+          <t>Rangitikei District</t>
+        </is>
+      </c>
+      <c r="T44" t="inlineStr">
+        <is>
+          <t>Rangitīkei-Turakina</t>
+        </is>
+      </c>
+      <c r="U44" t="inlineStr">
+        <is>
+          <t>Middle Rangitikei</t>
+        </is>
+      </c>
+      <c r="V44" t="inlineStr">
+        <is>
+          <t>Rang_2a</t>
+        </is>
+      </c>
+      <c r="W44" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>Rangitikei at Pukeokahu</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>E. coli</t>
+        </is>
+      </c>
+      <c r="C45" t="n">
+        <v>20</v>
+      </c>
+      <c r="D45" t="b">
+        <v>0</v>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>WARNING: Sen slope influenced by censored values</t>
+        </is>
+      </c>
+      <c r="F45" t="n">
+        <v>0.271941198686384</v>
+      </c>
+      <c r="G45" t="n">
+        <v>0.038135593220339</v>
+      </c>
+      <c r="H45" t="n">
+        <v>0.355932203389831</v>
+      </c>
+      <c r="I45" t="n">
+        <v>2</v>
+      </c>
+      <c r="J45" t="n">
+        <v>23.5</v>
+      </c>
+      <c r="K45" t="n">
+        <v>0</v>
+      </c>
+      <c r="L45" t="n">
+        <v>-0.157164371772806</v>
+      </c>
+      <c r="M45" t="n">
+        <v>0.529734722176151</v>
+      </c>
+      <c r="N45" t="n">
+        <v>0</v>
+      </c>
+      <c r="O45" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P45" t="inlineStr">
+        <is>
+          <t>Unlikely improving</t>
+        </is>
+      </c>
+      <c r="Q45" t="n">
+        <v>1861326.612</v>
+      </c>
+      <c r="R45" t="n">
+        <v>5609200.146</v>
+      </c>
+      <c r="S45" t="inlineStr">
+        <is>
+          <t>Rangitikei District</t>
+        </is>
+      </c>
+      <c r="T45" t="inlineStr">
+        <is>
+          <t>Rangitīkei-Turakina</t>
+        </is>
+      </c>
+      <c r="U45" t="inlineStr">
+        <is>
+          <t>Middle Rangitikei</t>
+        </is>
+      </c>
+      <c r="V45" t="inlineStr">
+        <is>
+          <t>Rang_2a</t>
+        </is>
+      </c>
+      <c r="W45" t="inlineStr">
+        <is>
+          <t>E. coli/100 mL</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>Rangitikei at Pukeokahu</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>Ammoniacal Nitrogen (NH4)</t>
+        </is>
+      </c>
+      <c r="C46" t="n">
+        <v>20</v>
+      </c>
+      <c r="D46" t="b">
+        <v>0</v>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>WARNING: Sen slope based on two censored values</t>
+        </is>
+      </c>
+      <c r="F46" t="n">
+        <v>0.6655912234917311</v>
+      </c>
+      <c r="G46" t="n">
+        <v>0.878378378378378</v>
+      </c>
+      <c r="H46" t="n">
+        <v>0.193693693693694</v>
+      </c>
+      <c r="I46" t="n">
+        <v>17</v>
+      </c>
+      <c r="J46" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="K46" t="n">
+        <v>0</v>
+      </c>
+      <c r="L46" t="n">
+        <v>0</v>
+      </c>
+      <c r="M46" t="n">
+        <v>0</v>
+      </c>
+      <c r="N46" t="n">
+        <v>0</v>
+      </c>
+      <c r="O46" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P46" t="inlineStr">
+        <is>
+          <t>As likely as not improving</t>
+        </is>
+      </c>
+      <c r="Q46" t="n">
+        <v>1861326.612</v>
+      </c>
+      <c r="R46" t="n">
+        <v>5609200.146</v>
+      </c>
+      <c r="S46" t="inlineStr">
+        <is>
+          <t>Rangitikei District</t>
+        </is>
+      </c>
+      <c r="T46" t="inlineStr">
+        <is>
+          <t>Rangitīkei-Turakina</t>
+        </is>
+      </c>
+      <c r="U46" t="inlineStr">
+        <is>
+          <t>Middle Rangitikei</t>
+        </is>
+      </c>
+      <c r="V46" t="inlineStr">
+        <is>
+          <t>Rang_2a</t>
+        </is>
+      </c>
+      <c r="W46" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>Rangitikei at Pukeokahu</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>Nitrate Nitrogen (NO3)</t>
+        </is>
+      </c>
+      <c r="C47" t="n">
+        <v>20</v>
+      </c>
+      <c r="D47" t="b">
+        <v>1</v>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>WARNING: Sen slope influenced by censored values</t>
+        </is>
+      </c>
+      <c r="F47" t="n">
+        <v>0.804615177577352</v>
+      </c>
+      <c r="G47" t="n">
+        <v>0.391705069124424</v>
+      </c>
+      <c r="H47" t="n">
+        <v>0.327188940092166</v>
+      </c>
+      <c r="I47" t="n">
+        <v>4</v>
+      </c>
+      <c r="J47" t="n">
+        <v>0.012</v>
+      </c>
+      <c r="K47" t="n">
+        <v>-0.0002650611678488</v>
+      </c>
+      <c r="L47" t="n">
+        <v>-0.0004416921960657</v>
+      </c>
+      <c r="M47" t="n">
+        <v>0</v>
+      </c>
+      <c r="N47" t="n">
+        <v>-2.20884306540744</v>
+      </c>
+      <c r="O47" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P47" t="inlineStr">
+        <is>
+          <t>Likely improving</t>
+        </is>
+      </c>
+      <c r="Q47" t="n">
+        <v>1861326.612</v>
+      </c>
+      <c r="R47" t="n">
+        <v>5609200.146</v>
+      </c>
+      <c r="S47" t="inlineStr">
+        <is>
+          <t>Rangitikei District</t>
+        </is>
+      </c>
+      <c r="T47" t="inlineStr">
+        <is>
+          <t>Rangitīkei-Turakina</t>
+        </is>
+      </c>
+      <c r="U47" t="inlineStr">
+        <is>
+          <t>Middle Rangitikei</t>
+        </is>
+      </c>
+      <c r="V47" t="inlineStr">
+        <is>
+          <t>Rang_2a</t>
+        </is>
+      </c>
+      <c r="W47" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>Rangitikei at Pukeokahu</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
+        </is>
+      </c>
+      <c r="C48" t="n">
+        <v>20</v>
+      </c>
+      <c r="D48" t="b">
+        <v>1</v>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F48" t="n">
+        <v>0.9985216818341</v>
+      </c>
+      <c r="G48" t="n">
+        <v>0.111607142857143</v>
+      </c>
+      <c r="H48" t="n">
+        <v>0.339285714285714</v>
+      </c>
+      <c r="I48" t="n">
+        <v>6</v>
+      </c>
+      <c r="J48" t="n">
+        <v>0.022</v>
+      </c>
+      <c r="K48" t="n">
+        <v>-0.0005000760658733</v>
+      </c>
+      <c r="L48" t="n">
+        <v>-0.0007503423875827</v>
+      </c>
+      <c r="M48" t="n">
+        <v>-0.0002608755022971</v>
+      </c>
+      <c r="N48" t="n">
+        <v>-2.27307302669716</v>
+      </c>
+      <c r="O48" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P48" t="inlineStr">
+        <is>
+          <t>Virtually certain improving</t>
+        </is>
+      </c>
+      <c r="Q48" t="n">
+        <v>1861326.612</v>
+      </c>
+      <c r="R48" t="n">
+        <v>5609200.146</v>
+      </c>
+      <c r="S48" t="inlineStr">
+        <is>
+          <t>Rangitikei District</t>
+        </is>
+      </c>
+      <c r="T48" t="inlineStr">
+        <is>
+          <t>Rangitīkei-Turakina</t>
+        </is>
+      </c>
+      <c r="U48" t="inlineStr">
+        <is>
+          <t>Middle Rangitikei</t>
+        </is>
+      </c>
+      <c r="V48" t="inlineStr">
+        <is>
+          <t>Rang_2a</t>
+        </is>
+      </c>
+      <c r="W48" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>Rangitikei at Pukeokahu</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>Turbidity</t>
+        </is>
+      </c>
+      <c r="C49" t="n">
+        <v>20</v>
+      </c>
+      <c r="D49" t="b">
+        <v>1</v>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F49" t="n">
+        <v>0.0195478192601008</v>
+      </c>
+      <c r="G49" t="n">
+        <v>0</v>
+      </c>
+      <c r="H49" t="n">
+        <v>0.745762711864407</v>
+      </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>0.867</v>
+      </c>
+      <c r="K49" t="n">
+        <v>0.009060983530891799</v>
+      </c>
+      <c r="L49" t="n">
+        <v>0.0014599040465851</v>
+      </c>
+      <c r="M49" t="n">
+        <v>0.0166678899650522</v>
+      </c>
+      <c r="N49" t="n">
+        <v>1.04509613966457</v>
+      </c>
+      <c r="O49" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P49" t="inlineStr">
+        <is>
+          <t>Extremely unlikely improving</t>
+        </is>
+      </c>
+      <c r="Q49" t="n">
+        <v>1861326.612</v>
+      </c>
+      <c r="R49" t="n">
+        <v>5609200.146</v>
+      </c>
+      <c r="S49" t="inlineStr">
+        <is>
+          <t>Rangitikei District</t>
+        </is>
+      </c>
+      <c r="T49" t="inlineStr">
+        <is>
+          <t>Rangitīkei-Turakina</t>
+        </is>
+      </c>
+      <c r="U49" t="inlineStr">
+        <is>
+          <t>Middle Rangitikei</t>
+        </is>
+      </c>
+      <c r="V49" t="inlineStr">
+        <is>
+          <t>Rang_2a</t>
+        </is>
+      </c>
+      <c r="W49" t="inlineStr">
+        <is>
+          <t>NTU/FNU</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>Rangitikei at Pukeokahu</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>ASPM (Macroinvertebrate Average Score Per Metric)</t>
+        </is>
+      </c>
+      <c r="C50" t="n">
+        <v>5</v>
+      </c>
+      <c r="D50" t="b">
+        <v>0</v>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F50" t="n">
+        <v>0.40324797025367</v>
+      </c>
+      <c r="G50" t="n">
+        <v>0</v>
+      </c>
+      <c r="H50" t="n">
+        <v>1</v>
+      </c>
+      <c r="I50" t="n">
+        <v>0</v>
+      </c>
+      <c r="J50" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="K50" t="n">
+        <v>-0.0312674835448989</v>
+      </c>
+      <c r="L50" t="n">
+        <v>-0.08990904810023929</v>
+      </c>
+      <c r="M50" t="n">
+        <v>0.0190911753572859</v>
+      </c>
+      <c r="N50" t="n">
+        <v>-5.48552342892963</v>
+      </c>
+      <c r="O50" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P50" t="inlineStr">
+        <is>
+          <t>As likely as not improving</t>
+        </is>
+      </c>
+      <c r="Q50" t="n">
+        <v>1861326.612</v>
+      </c>
+      <c r="R50" t="n">
+        <v>5609200.146</v>
+      </c>
+      <c r="S50" t="inlineStr">
+        <is>
+          <t>Rangitikei District</t>
+        </is>
+      </c>
+      <c r="T50" t="inlineStr">
+        <is>
+          <t>Rangitīkei-Turakina</t>
+        </is>
+      </c>
+      <c r="U50" t="inlineStr">
+        <is>
+          <t>Middle Rangitikei</t>
+        </is>
+      </c>
+      <c r="V50" t="inlineStr">
+        <is>
+          <t>Rang_2a</t>
+        </is>
+      </c>
+      <c r="W50" t="inlineStr"/>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>Rangitikei at Pukeokahu</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>MCI (Macroinvertebrate Community Index)</t>
+        </is>
+      </c>
+      <c r="C51" t="n">
+        <v>5</v>
+      </c>
+      <c r="D51" t="b">
+        <v>0</v>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F51" t="n">
+        <v>0.768783636774762</v>
+      </c>
+      <c r="G51" t="n">
+        <v>0</v>
+      </c>
+      <c r="H51" t="n">
+        <v>1</v>
+      </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>118</v>
+      </c>
+      <c r="K51" t="n">
+        <v>0.763117432320975</v>
+      </c>
+      <c r="L51" t="n">
+        <v>-12.8794564649799</v>
+      </c>
+      <c r="M51" t="n">
+        <v>7.75888093989273</v>
+      </c>
+      <c r="N51" t="n">
+        <v>0.646709688407605</v>
+      </c>
+      <c r="O51" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P51" t="inlineStr">
+        <is>
+          <t>Likely improving</t>
+        </is>
+      </c>
+      <c r="Q51" t="n">
+        <v>1861326.612</v>
+      </c>
+      <c r="R51" t="n">
+        <v>5609200.146</v>
+      </c>
+      <c r="S51" t="inlineStr">
+        <is>
+          <t>Rangitikei District</t>
+        </is>
+      </c>
+      <c r="T51" t="inlineStr">
+        <is>
+          <t>Rangitīkei-Turakina</t>
+        </is>
+      </c>
+      <c r="U51" t="inlineStr">
+        <is>
+          <t>Middle Rangitikei</t>
+        </is>
+      </c>
+      <c r="V51" t="inlineStr">
+        <is>
+          <t>Rang_2a</t>
+        </is>
+      </c>
+      <c r="W51" t="inlineStr"/>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>Rangitikei at Pukeokahu</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>QMCI (Quantitative Macroinvertebrate Community Index)</t>
+        </is>
+      </c>
+      <c r="C52" t="n">
+        <v>5</v>
+      </c>
+      <c r="D52" t="b">
+        <v>0</v>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F52" t="n">
+        <v>0.110335680959923</v>
+      </c>
+      <c r="G52" t="n">
+        <v>0</v>
+      </c>
+      <c r="H52" t="n">
+        <v>1</v>
+      </c>
+      <c r="I52" t="n">
+        <v>0</v>
+      </c>
+      <c r="J52" t="n">
+        <v>6.18</v>
+      </c>
+      <c r="K52" t="n">
+        <v>-0.401707265710704</v>
+      </c>
+      <c r="L52" t="n">
+        <v>-0.903871997272985</v>
+      </c>
+      <c r="M52" t="n">
+        <v>0.0921679084018449</v>
+      </c>
+      <c r="N52" t="n">
+        <v>-6.50011756813436</v>
+      </c>
+      <c r="O52" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P52" t="inlineStr">
+        <is>
+          <t>Unlikely improving</t>
+        </is>
+      </c>
+      <c r="Q52" t="n">
+        <v>1861326.612</v>
+      </c>
+      <c r="R52" t="n">
+        <v>5609200.146</v>
+      </c>
+      <c r="S52" t="inlineStr">
+        <is>
+          <t>Rangitikei District</t>
+        </is>
+      </c>
+      <c r="T52" t="inlineStr">
+        <is>
+          <t>Rangitīkei-Turakina</t>
+        </is>
+      </c>
+      <c r="U52" t="inlineStr">
+        <is>
+          <t>Middle Rangitikei</t>
+        </is>
+      </c>
+      <c r="V52" t="inlineStr">
+        <is>
+          <t>Rang_2a</t>
+        </is>
+      </c>
+      <c r="W52" t="inlineStr"/>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>Rangitikei at Pukeokahu</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>ASPM (Macroinvertebrate Average Score Per Metric)</t>
+        </is>
+      </c>
+      <c r="C53" t="n">
+        <v>10</v>
+      </c>
+      <c r="D53" t="b">
+        <v>0</v>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F53" t="n">
+        <v>0.036819135060151</v>
+      </c>
+      <c r="G53" t="n">
+        <v>0</v>
+      </c>
+      <c r="H53" t="n">
+        <v>1</v>
+      </c>
+      <c r="I53" t="n">
+        <v>0</v>
+      </c>
+      <c r="J53" t="n">
+        <v>0.579</v>
+      </c>
+      <c r="K53" t="n">
+        <v>-0.0193064800313234</v>
+      </c>
+      <c r="L53" t="n">
+        <v>-0.0315828653256116</v>
+      </c>
+      <c r="M53" t="n">
+        <v>-0.0007544516270396</v>
+      </c>
+      <c r="N53" t="n">
+        <v>-3.33445250972771</v>
+      </c>
+      <c r="O53" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P53" t="inlineStr">
+        <is>
+          <t>Extremely unlikely improving</t>
+        </is>
+      </c>
+      <c r="Q53" t="n">
+        <v>1861326.612</v>
+      </c>
+      <c r="R53" t="n">
+        <v>5609200.146</v>
+      </c>
+      <c r="S53" t="inlineStr">
+        <is>
+          <t>Rangitikei District</t>
+        </is>
+      </c>
+      <c r="T53" t="inlineStr">
+        <is>
+          <t>Rangitīkei-Turakina</t>
+        </is>
+      </c>
+      <c r="U53" t="inlineStr">
+        <is>
+          <t>Middle Rangitikei</t>
+        </is>
+      </c>
+      <c r="V53" t="inlineStr">
+        <is>
+          <t>Rang_2a</t>
+        </is>
+      </c>
+      <c r="W53" t="inlineStr"/>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>Rangitikei at Pukeokahu</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>MCI (Macroinvertebrate Community Index)</t>
+        </is>
+      </c>
+      <c r="C54" t="n">
+        <v>10</v>
+      </c>
+      <c r="D54" t="b">
+        <v>0</v>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>WARNING: Sen slope based on tied non-censored values</t>
+        </is>
+      </c>
+      <c r="F54" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G54" t="n">
+        <v>0</v>
+      </c>
+      <c r="H54" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="I54" t="n">
+        <v>0</v>
+      </c>
+      <c r="J54" t="n">
+        <v>114</v>
+      </c>
+      <c r="K54" t="n">
+        <v>0</v>
+      </c>
+      <c r="L54" t="n">
+        <v>-1.83184111547544</v>
+      </c>
+      <c r="M54" t="n">
+        <v>1.00976688775975</v>
+      </c>
+      <c r="N54" t="n">
+        <v>0</v>
+      </c>
+      <c r="O54" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P54" t="inlineStr">
+        <is>
+          <t>As likely as not improving</t>
+        </is>
+      </c>
+      <c r="Q54" t="n">
+        <v>1861326.612</v>
+      </c>
+      <c r="R54" t="n">
+        <v>5609200.146</v>
+      </c>
+      <c r="S54" t="inlineStr">
+        <is>
+          <t>Rangitikei District</t>
+        </is>
+      </c>
+      <c r="T54" t="inlineStr">
+        <is>
+          <t>Rangitīkei-Turakina</t>
+        </is>
+      </c>
+      <c r="U54" t="inlineStr">
+        <is>
+          <t>Middle Rangitikei</t>
+        </is>
+      </c>
+      <c r="V54" t="inlineStr">
+        <is>
+          <t>Rang_2a</t>
+        </is>
+      </c>
+      <c r="W54" t="inlineStr"/>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>Rangitikei at Pukeokahu</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>QMCI (Quantitative Macroinvertebrate Community Index)</t>
+        </is>
+      </c>
+      <c r="C55" t="n">
+        <v>10</v>
+      </c>
+      <c r="D55" t="b">
+        <v>0</v>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F55" t="n">
+        <v>0.570986171506239</v>
+      </c>
+      <c r="G55" t="n">
+        <v>0</v>
+      </c>
+      <c r="H55" t="n">
+        <v>1</v>
+      </c>
+      <c r="I55" t="n">
+        <v>0</v>
+      </c>
+      <c r="J55" t="n">
+        <v>5.42</v>
+      </c>
+      <c r="K55" t="n">
+        <v>0.051155462184874</v>
+      </c>
+      <c r="L55" t="n">
+        <v>-0.254779288764067</v>
+      </c>
+      <c r="M55" t="n">
+        <v>0.204594847465853</v>
+      </c>
+      <c r="N55" t="n">
+        <v>0.943827715588081</v>
+      </c>
+      <c r="O55" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P55" t="inlineStr">
+        <is>
+          <t>As likely as not improving</t>
+        </is>
+      </c>
+      <c r="Q55" t="n">
+        <v>1861326.612</v>
+      </c>
+      <c r="R55" t="n">
+        <v>5609200.146</v>
+      </c>
+      <c r="S55" t="inlineStr">
+        <is>
+          <t>Rangitikei District</t>
+        </is>
+      </c>
+      <c r="T55" t="inlineStr">
+        <is>
+          <t>Rangitīkei-Turakina</t>
+        </is>
+      </c>
+      <c r="U55" t="inlineStr">
+        <is>
+          <t>Middle Rangitikei</t>
+        </is>
+      </c>
+      <c r="V55" t="inlineStr">
+        <is>
+          <t>Rang_2a</t>
+        </is>
+      </c>
+      <c r="W55" t="inlineStr"/>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>Rangitikei at Pukeokahu</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>MCI (Macroinvertebrate Community Index)</t>
+        </is>
+      </c>
+      <c r="C56" t="n">
+        <v>15</v>
+      </c>
+      <c r="D56" t="b">
+        <v>0</v>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F56" t="n">
+        <v>0.067857381894597</v>
+      </c>
+      <c r="G56" t="n">
+        <v>0</v>
+      </c>
+      <c r="H56" t="n">
+        <v>0.7333333333333329</v>
+      </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>118</v>
+      </c>
+      <c r="K56" t="n">
+        <v>-0.8249058971141781</v>
+      </c>
+      <c r="L56" t="n">
+        <v>-1.91431369699011</v>
+      </c>
+      <c r="M56" t="n">
+        <v>0</v>
+      </c>
+      <c r="N56" t="n">
+        <v>-0.699072794164558</v>
+      </c>
+      <c r="O56" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P56" t="inlineStr">
+        <is>
+          <t>Very unlikely improving</t>
+        </is>
+      </c>
+      <c r="Q56" t="n">
+        <v>1861326.612</v>
+      </c>
+      <c r="R56" t="n">
+        <v>5609200.146</v>
+      </c>
+      <c r="S56" t="inlineStr">
+        <is>
+          <t>Rangitikei District</t>
+        </is>
+      </c>
+      <c r="T56" t="inlineStr">
+        <is>
+          <t>Rangitīkei-Turakina</t>
+        </is>
+      </c>
+      <c r="U56" t="inlineStr">
+        <is>
+          <t>Middle Rangitikei</t>
+        </is>
+      </c>
+      <c r="V56" t="inlineStr">
+        <is>
+          <t>Rang_2a</t>
+        </is>
+      </c>
+      <c r="W56" t="inlineStr"/>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>Rangitikei at Pukeokahu</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>MCI (Macroinvertebrate Community Index)</t>
+        </is>
+      </c>
+      <c r="C57" t="n">
+        <v>20</v>
+      </c>
+      <c r="D57" t="b">
+        <v>0</v>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F57" t="n">
+        <v>0.155810538346123</v>
+      </c>
+      <c r="G57" t="n">
+        <v>0</v>
+      </c>
+      <c r="H57" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="I57" t="n">
+        <v>0</v>
+      </c>
+      <c r="J57" t="n">
+        <v>118.5</v>
+      </c>
+      <c r="K57" t="n">
+        <v>-0.232443889253716</v>
+      </c>
+      <c r="L57" t="n">
+        <v>-0.81910483030833</v>
+      </c>
+      <c r="M57" t="n">
+        <v>0.123255105180206</v>
+      </c>
+      <c r="N57" t="n">
+        <v>-0.196155180804824</v>
+      </c>
+      <c r="O57" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P57" t="inlineStr">
+        <is>
+          <t>Unlikely improving</t>
+        </is>
+      </c>
+      <c r="Q57" t="n">
+        <v>1861326.612</v>
+      </c>
+      <c r="R57" t="n">
+        <v>5609200.146</v>
+      </c>
+      <c r="S57" t="inlineStr">
+        <is>
+          <t>Rangitikei District</t>
+        </is>
+      </c>
+      <c r="T57" t="inlineStr">
+        <is>
+          <t>Rangitīkei-Turakina</t>
+        </is>
+      </c>
+      <c r="U57" t="inlineStr">
+        <is>
+          <t>Middle Rangitikei</t>
+        </is>
+      </c>
+      <c r="V57" t="inlineStr">
+        <is>
+          <t>Rang_2a</t>
+        </is>
+      </c>
+      <c r="W57" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/trend_results/Rivers/RangitikeiatPukeokahu_8c9572fbb5.xlsx
+++ b/trend_results/Rivers/RangitikeiatPukeokahu_8c9572fbb5.xlsx
@@ -573,31 +573,31 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>0.0443228489513414</v>
+        <v>0.956032547894111</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0.911111111111111</v>
+        <v>0.906976744186046</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="K2" t="n">
-        <v>0.521785714285713</v>
+        <v>-0.690598739495798</v>
       </c>
       <c r="L2" t="n">
-        <v>0.0107096972521208</v>
+        <v>-1.20429336143221</v>
       </c>
       <c r="M2" t="n">
-        <v>1.13081614145977</v>
+        <v>-0.0244477517237469</v>
       </c>
       <c r="N2" t="n">
-        <v>16.831797235023</v>
+        <v>-21.2491919844861</v>
       </c>
       <c r="O2" t="inlineStr">
         <is>
@@ -606,7 +606,7 @@
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>Extremely unlikely improving</t>
+          <t>Extremely likely improving</t>
         </is>
       </c>
       <c r="Q2" t="n">
@@ -664,31 +664,31 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>0.935086057154804</v>
+        <v>0.637027162548105</v>
       </c>
       <c r="G3" t="n">
-        <v>0.104166666666667</v>
+        <v>0.15</v>
       </c>
       <c r="H3" t="n">
-        <v>0.5625</v>
+        <v>0.6</v>
       </c>
       <c r="I3" t="n">
         <v>3</v>
       </c>
       <c r="J3" t="n">
-        <v>2</v>
+        <v>2.6</v>
       </c>
       <c r="K3" t="n">
-        <v>0.242573438970127</v>
+        <v>0.0369286141490088</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>-0.387955945001602</v>
       </c>
       <c r="M3" t="n">
-        <v>0.662318109328119</v>
+        <v>0.547955918497596</v>
       </c>
       <c r="N3" t="n">
-        <v>12.1286719485063</v>
+        <v>1.42033131342342</v>
       </c>
       <c r="O3" t="inlineStr">
         <is>
@@ -697,7 +697,7 @@
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>Very likely improving</t>
+          <t>As likely as not improving</t>
         </is>
       </c>
       <c r="Q3" t="n">
@@ -755,31 +755,31 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>0.378459466431536</v>
+        <v>0.5</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0.910714285714286</v>
+        <v>0.892857142857143</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>11.025</v>
+        <v>10.835</v>
       </c>
       <c r="K4" t="n">
-        <v>-0.0184946670976082</v>
+        <v>-0.0012482911825016</v>
       </c>
       <c r="L4" t="n">
-        <v>-0.09695070711252091</v>
+        <v>-0.0896279050944558</v>
       </c>
       <c r="M4" t="n">
-        <v>0.059882493170897</v>
+        <v>0.08694917182701239</v>
       </c>
       <c r="N4" t="n">
-        <v>-0.167752082517988</v>
+        <v>-0.0115209153899555</v>
       </c>
       <c r="O4" t="inlineStr">
         <is>
@@ -846,28 +846,28 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>0.801305011935284</v>
+        <v>0.314596176461339</v>
       </c>
       <c r="G5" t="n">
         <v>0.263157894736842</v>
       </c>
       <c r="H5" t="n">
-        <v>0.210526315789474</v>
+        <v>0.228070175438596</v>
       </c>
       <c r="I5" t="n">
         <v>1</v>
       </c>
       <c r="J5" t="n">
-        <v>0.008</v>
+        <v>0.007</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>-0.0008526409888055</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>0.0006522321428571</v>
       </c>
       <c r="N5" t="n">
         <v>0</v>
@@ -879,7 +879,7 @@
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>Likely improving</t>
+          <t>Unlikely improving</t>
         </is>
       </c>
       <c r="Q5" t="n">
@@ -933,17 +933,17 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope influenced by censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>0.417967078778013</v>
+        <v>0.040426764377999</v>
       </c>
       <c r="G6" t="n">
         <v>0.0350877192982456</v>
       </c>
       <c r="H6" t="n">
-        <v>0.491228070175439</v>
+        <v>0.543859649122807</v>
       </c>
       <c r="I6" t="n">
         <v>1</v>
@@ -952,16 +952,16 @@
         <v>30</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>5.14965837733695</v>
       </c>
       <c r="L6" t="n">
-        <v>-3.15578615540846</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>5.22183621993817</v>
+        <v>11.2215946571788</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>17.1655279244565</v>
       </c>
       <c r="O6" t="inlineStr">
         <is>
@@ -970,7 +970,7 @@
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Extremely unlikely improving</t>
         </is>
       </c>
       <c r="Q6" t="n">
@@ -1029,13 +1029,13 @@
       </c>
       <c r="F7" t="inlineStr"/>
       <c r="G7" t="n">
-        <v>0.947368421052632</v>
+        <v>0.946428571428571</v>
       </c>
       <c r="H7" t="n">
-        <v>0.175438596491228</v>
+        <v>0.142857142857143</v>
       </c>
       <c r="I7" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
@@ -1107,10 +1107,10 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>0.530340138546164</v>
+        <v>0.9975502549512441</v>
       </c>
       <c r="G8" t="n">
-        <v>0.754385964912281</v>
+        <v>0.736842105263158</v>
       </c>
       <c r="H8" t="n">
         <v>0.087719298245614</v>
@@ -1140,7 +1140,7 @@
       </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Virtually certain improving</t>
         </is>
       </c>
       <c r="Q8" t="n">
@@ -1190,15 +1190,15 @@
         <v>5</v>
       </c>
       <c r="D9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>ok</t>
+          <t>WARNING: Sen slope influenced by censored values</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>0.957144164122351</v>
+        <v>0.309895078521943</v>
       </c>
       <c r="G9" t="n">
         <v>0.280701754385965</v>
@@ -1213,16 +1213,16 @@
         <v>0.011</v>
       </c>
       <c r="K9" t="n">
-        <v>-0.001001375035703</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>-0.002473092715534</v>
+        <v>-0.0008208578784455</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>0.0019563903800317</v>
       </c>
       <c r="N9" t="n">
-        <v>-9.10340941548192</v>
+        <v>0</v>
       </c>
       <c r="O9" t="inlineStr">
         <is>
@@ -1231,7 +1231,7 @@
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>Extremely likely improving</t>
+          <t>Unlikely improving</t>
         </is>
       </c>
       <c r="Q9" t="n">
@@ -1289,31 +1289,31 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>0.07213410387785101</v>
+        <v>0.058238060370967</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0.701754385964912</v>
+        <v>0.75</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>7.92</v>
+        <v>7.9</v>
       </c>
       <c r="K10" t="n">
-        <v>-0.0246377170157403</v>
+        <v>-0.0290894522144523</v>
       </c>
       <c r="L10" t="n">
-        <v>-0.0555463300467683</v>
+        <v>-0.0671410547268485</v>
       </c>
       <c r="M10" t="n">
-        <v>0.0031754476887051</v>
+        <v>0</v>
       </c>
       <c r="N10" t="n">
-        <v>-0.311082285552277</v>
+        <v>-0.368220914106991</v>
       </c>
       <c r="O10" t="inlineStr">
         <is>
@@ -1372,17 +1372,17 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>ok</t>
+          <t>WARNING: Sen slope influenced by censored values</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>0.9971905589255809</v>
+        <v>0.409532448722667</v>
       </c>
       <c r="G11" t="n">
         <v>0.0350877192982456</v>
       </c>
       <c r="H11" t="n">
-        <v>0.508771929824561</v>
+        <v>0.614035087719298</v>
       </c>
       <c r="I11" t="n">
         <v>1</v>
@@ -1391,16 +1391,16 @@
         <v>0.015</v>
       </c>
       <c r="K11" t="n">
-        <v>-0.0020068681318681</v>
+        <v>0.0014918318689873</v>
       </c>
       <c r="L11" t="n">
-        <v>-0.004626706526076</v>
+        <v>-0.0009938775510204001</v>
       </c>
       <c r="M11" t="n">
-        <v>-0.0009945548230528001</v>
+        <v>0.0026609108437214</v>
       </c>
       <c r="N11" t="n">
-        <v>-13.3791208791209</v>
+        <v>9.945545793249179</v>
       </c>
       <c r="O11" t="inlineStr">
         <is>
@@ -1409,7 +1409,7 @@
       </c>
       <c r="P11" t="inlineStr">
         <is>
-          <t>Virtually certain improving</t>
+          <t>As likely as not improving</t>
         </is>
       </c>
       <c r="Q11" t="n">
@@ -1452,7 +1452,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Suspended Sediment Concentration</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C12" t="n">
@@ -1463,32 +1463,32 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope influenced by censored values</t>
+          <t>WARNING: Sen slope based on tied non-censored values</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>0.787353039361707</v>
+        <v>0.436762265930655</v>
       </c>
       <c r="G12" t="n">
-        <v>0.473684210526316</v>
+        <v>0.0175438596491228</v>
       </c>
       <c r="H12" t="n">
-        <v>0.157894736842105</v>
+        <v>0.315789473684211</v>
       </c>
       <c r="I12" t="n">
         <v>1</v>
       </c>
       <c r="J12" t="n">
-        <v>1</v>
+        <v>0.08</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>-0.0057161832304345</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>0.007946568363411699</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
@@ -1500,7 +1500,7 @@
       </c>
       <c r="P12" t="inlineStr">
         <is>
-          <t>Likely improving</t>
+          <t>As likely as not improving</t>
         </is>
       </c>
       <c r="Q12" t="n">
@@ -1531,7 +1531,7 @@
       </c>
       <c r="W12" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>g/m3</t>
         </is>
       </c>
     </row>
@@ -1543,7 +1543,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Total Nitrogen</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C13" t="n">
@@ -1558,31 +1558,31 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>0.999305112355531</v>
+        <v>0.0059696310539739</v>
       </c>
       <c r="G13" t="n">
-        <v>0.0350877192982456</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0.315789473684211</v>
+        <v>0.385964912280702</v>
       </c>
       <c r="I13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0.08</v>
+        <v>0.012</v>
       </c>
       <c r="K13" t="n">
-        <v>-0.0113431677018633</v>
+        <v>0.0014465088482945</v>
       </c>
       <c r="L13" t="n">
-        <v>-0.0169507646387468</v>
+        <v>0.0004276932084309</v>
       </c>
       <c r="M13" t="n">
-        <v>-0.0058383348711573</v>
+        <v>0.0024557244729488</v>
       </c>
       <c r="N13" t="n">
-        <v>-14.1789596273292</v>
+        <v>12.0542404024547</v>
       </c>
       <c r="O13" t="inlineStr">
         <is>
@@ -1591,7 +1591,7 @@
       </c>
       <c r="P13" t="inlineStr">
         <is>
-          <t>Virtually certain improving</t>
+          <t>Exceptionally unlikely improving</t>
         </is>
       </c>
       <c r="Q13" t="n">
@@ -1634,7 +1634,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Total Phosphorus</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C14" t="n">
@@ -1649,31 +1649,31 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>0.06519208360714659</v>
+        <v>0.7796601336658699</v>
       </c>
       <c r="G14" t="n">
-        <v>0.0175438596491228</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0.333333333333333</v>
+        <v>0.947368421052632</v>
       </c>
       <c r="I14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0.012</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="K14" t="n">
-        <v>0.000702749669612</v>
+        <v>-0.0513369815668203</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>-0.167824919404734</v>
       </c>
       <c r="M14" t="n">
-        <v>0.001656462585034</v>
+        <v>0.0583895621048569</v>
       </c>
       <c r="N14" t="n">
-        <v>5.85624724676738</v>
+        <v>-5.46138101774684</v>
       </c>
       <c r="O14" t="inlineStr">
         <is>
@@ -1682,7 +1682,7 @@
       </c>
       <c r="P14" t="inlineStr">
         <is>
-          <t>Very unlikely improving</t>
+          <t>Likely improving</t>
         </is>
       </c>
       <c r="Q14" t="n">
@@ -1713,7 +1713,7 @@
       </c>
       <c r="W14" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>NTU/FNU</t>
         </is>
       </c>
     </row>
@@ -1725,14 +1725,14 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Turbidity</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
@@ -1740,31 +1740,31 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>0.913191332787528</v>
+        <v>0.577695443772118</v>
       </c>
       <c r="G15" t="n">
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>0.929824561403509</v>
+        <v>0.797872340425532</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0.98</v>
+        <v>2.85</v>
       </c>
       <c r="K15" t="n">
-        <v>-0.0587600123801358</v>
+        <v>-0.017869373776908</v>
       </c>
       <c r="L15" t="n">
-        <v>-0.15481328860852</v>
+        <v>-0.176435266937223</v>
       </c>
       <c r="M15" t="n">
-        <v>0.0132405748986179</v>
+        <v>0.15902377163375</v>
       </c>
       <c r="N15" t="n">
-        <v>-5.9959196306261</v>
+        <v>-0.62699557111958</v>
       </c>
       <c r="O15" t="inlineStr">
         <is>
@@ -1773,7 +1773,7 @@
       </c>
       <c r="P15" t="inlineStr">
         <is>
-          <t>Very likely improving</t>
+          <t>As likely as not improving</t>
         </is>
       </c>
       <c r="Q15" t="n">
@@ -1804,7 +1804,7 @@
       </c>
       <c r="W15" t="inlineStr">
         <is>
-          <t>NTU/FNU</t>
+          <t>mg/m2</t>
         </is>
       </c>
     </row>
@@ -1816,7 +1816,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Chlorophyll A</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C16" t="n">
@@ -1831,31 +1831,31 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>0.225071744172224</v>
+        <v>0.209788292073489</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>0.07526881720430111</v>
       </c>
       <c r="H16" t="n">
-        <v>0.724489795918367</v>
+        <v>0.56989247311828</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J16" t="n">
-        <v>2.9</v>
+        <v>2.7</v>
       </c>
       <c r="K16" t="n">
-        <v>0.07349094567404429</v>
+        <v>-0.09221564289432591</v>
       </c>
       <c r="L16" t="n">
-        <v>-0.08051213169056221</v>
+        <v>-0.203463141052824</v>
       </c>
       <c r="M16" t="n">
-        <v>0.249101647202834</v>
+        <v>0.0197176898737277</v>
       </c>
       <c r="N16" t="n">
-        <v>2.53417054048429</v>
+        <v>-3.41539418127133</v>
       </c>
       <c r="O16" t="inlineStr">
         <is>
@@ -1895,7 +1895,7 @@
       </c>
       <c r="W16" t="inlineStr">
         <is>
-          <t>mg/m2</t>
+          <t>m</t>
         </is>
       </c>
     </row>
@@ -1907,7 +1907,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Visual Clarity</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C17" t="n">
@@ -1918,35 +1918,35 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope influenced by censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>0.163700888538551</v>
+        <v>0.880463943518477</v>
       </c>
       <c r="G17" t="n">
-        <v>0.0588235294117647</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0.529411764705882</v>
+        <v>0.878260869565217</v>
       </c>
       <c r="I17" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>2.7</v>
+        <v>10.94</v>
       </c>
       <c r="K17" t="n">
-        <v>-0.0519786535303776</v>
+        <v>0.0248469387755097</v>
       </c>
       <c r="L17" t="n">
-        <v>-0.149794941900205</v>
+        <v>-0.0066718022431288</v>
       </c>
       <c r="M17" t="n">
-        <v>0.0306425606680153</v>
+        <v>0.0541278641467868</v>
       </c>
       <c r="N17" t="n">
-        <v>-1.92513531593991</v>
+        <v>0.227120098496432</v>
       </c>
       <c r="O17" t="inlineStr">
         <is>
@@ -1955,7 +1955,7 @@
       </c>
       <c r="P17" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>Likely increasing</t>
         </is>
       </c>
       <c r="Q17" t="n">
@@ -1986,7 +1986,7 @@
       </c>
       <c r="W17" t="inlineStr">
         <is>
-          <t>m</t>
+          <t>g/m3</t>
         </is>
       </c>
     </row>
@@ -1998,46 +1998,46 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Dissolved Oxygen Concentration</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C18" t="n">
         <v>10</v>
       </c>
       <c r="D18" t="b">
+        <v>0</v>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>WARNING: Sen slope influenced by censored values</t>
+        </is>
+      </c>
+      <c r="F18" t="n">
+        <v>0.908859313076861</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0.153846153846154</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0.11965811965812</v>
+      </c>
+      <c r="I18" t="n">
         <v>1</v>
       </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>ok</t>
-        </is>
-      </c>
-      <c r="F18" t="n">
-        <v>0.360846217512732</v>
-      </c>
-      <c r="G18" t="n">
-        <v>0</v>
-      </c>
-      <c r="H18" t="n">
-        <v>0.869565217391304</v>
-      </c>
-      <c r="I18" t="n">
-        <v>0</v>
-      </c>
       <c r="J18" t="n">
-        <v>10.95</v>
+        <v>0.008</v>
       </c>
       <c r="K18" t="n">
-        <v>-0.0066895604395603</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>-0.034995383310107</v>
+        <v>-0.0003152783772119</v>
       </c>
       <c r="M18" t="n">
-        <v>0.0228847799526334</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>-0.061091876160368</v>
+        <v>0</v>
       </c>
       <c r="O18" t="inlineStr">
         <is>
@@ -2046,7 +2046,7 @@
       </c>
       <c r="P18" t="inlineStr">
         <is>
-          <t>As likely as not increasing</t>
+          <t>Very likely improving</t>
         </is>
       </c>
       <c r="Q18" t="n">
@@ -2077,7 +2077,7 @@
       </c>
       <c r="W18" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -2089,7 +2089,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Dissolved Reactive Phosphorus</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C19" t="n">
@@ -2100,35 +2100,35 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope influenced by censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>0.64005422828368</v>
+        <v>0.0013140150074586</v>
       </c>
       <c r="G19" t="n">
-        <v>0.170940170940171</v>
+        <v>0.0170940170940171</v>
       </c>
       <c r="H19" t="n">
-        <v>0.102564102564103</v>
+        <v>0.367521367521368</v>
       </c>
       <c r="I19" t="n">
         <v>1</v>
       </c>
       <c r="J19" t="n">
-        <v>0.008</v>
+        <v>29</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>2.51126814362108</v>
       </c>
       <c r="L19" t="n">
-        <v>-0.0001817591516681</v>
+        <v>0.987732256400909</v>
       </c>
       <c r="M19" t="n">
-        <v>0</v>
+        <v>3.78715437788018</v>
       </c>
       <c r="N19" t="n">
-        <v>0</v>
+        <v>8.659545322831329</v>
       </c>
       <c r="O19" t="inlineStr">
         <is>
@@ -2137,7 +2137,7 @@
       </c>
       <c r="P19" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Exceptionally unlikely improving</t>
         </is>
       </c>
       <c r="Q19" t="n">
@@ -2168,7 +2168,7 @@
       </c>
       <c r="W19" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>E. coli/100 mL</t>
         </is>
       </c>
     </row>
@@ -2180,7 +2180,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>E. coli</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C20" t="n">
@@ -2191,35 +2191,35 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>ok</t>
+          <t>WARNING: Sen slope based on two censored values</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>0.110234969224939</v>
+        <v>0.723426960935764</v>
       </c>
       <c r="G20" t="n">
-        <v>0.0170940170940171</v>
+        <v>0.947826086956522</v>
       </c>
       <c r="H20" t="n">
-        <v>0.376068376068376</v>
+        <v>0.165217391304348</v>
       </c>
       <c r="I20" t="n">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="J20" t="n">
-        <v>25</v>
+        <v>0.005</v>
       </c>
       <c r="K20" t="n">
-        <v>0.797228447370264</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
         <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>2.27912702336681</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>3.18891378948106</v>
+        <v>0</v>
       </c>
       <c r="O20" t="inlineStr">
         <is>
@@ -2228,7 +2228,7 @@
       </c>
       <c r="P20" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>Likely improving</t>
         </is>
       </c>
       <c r="Q20" t="n">
@@ -2259,7 +2259,7 @@
       </c>
       <c r="W20" t="inlineStr">
         <is>
-          <t>E. coli/100 mL</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -2271,7 +2271,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Ammoniacal Nitrogen (NH4)</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C21" t="n">
@@ -2282,23 +2282,23 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope based on two censored values</t>
+          <t>WARNING: Sen slope influenced by censored values</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>0.681059468142486</v>
+        <v>0.940740237972534</v>
       </c>
       <c r="G21" t="n">
-        <v>0.939655172413793</v>
+        <v>0.683760683760684</v>
       </c>
       <c r="H21" t="n">
-        <v>0.172413793103448</v>
+        <v>0.0598290598290598</v>
       </c>
       <c r="I21" t="n">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="J21" t="n">
-        <v>0.005</v>
+        <v>0.001</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -2319,7 +2319,7 @@
       </c>
       <c r="P21" t="inlineStr">
         <is>
-          <t>Likely improving</t>
+          <t>Very likely improving</t>
         </is>
       </c>
       <c r="Q21" t="n">
@@ -2362,14 +2362,14 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Nitrite Nitrogen (NO2)</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C22" t="n">
         <v>10</v>
       </c>
       <c r="D22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
@@ -2377,31 +2377,31 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>0.979190329558201</v>
+        <v>0.0146747299615196</v>
       </c>
       <c r="G22" t="n">
-        <v>0.606837606837607</v>
+        <v>0.290598290598291</v>
       </c>
       <c r="H22" t="n">
-        <v>0.0598290598290598</v>
+        <v>0.478632478632479</v>
       </c>
       <c r="I22" t="n">
         <v>1</v>
       </c>
       <c r="J22" t="n">
-        <v>0.001</v>
+        <v>0.012</v>
       </c>
       <c r="K22" t="n">
-        <v>0</v>
+        <v>0.0003554398598676</v>
       </c>
       <c r="L22" t="n">
         <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>0</v>
+        <v>0.0009357763757901</v>
       </c>
       <c r="N22" t="n">
-        <v>0</v>
+        <v>2.96199883223044</v>
       </c>
       <c r="O22" t="inlineStr">
         <is>
@@ -2410,7 +2410,7 @@
       </c>
       <c r="P22" t="inlineStr">
         <is>
-          <t>Extremely likely improving</t>
+          <t>Extremely unlikely improving</t>
         </is>
       </c>
       <c r="Q22" t="n">
@@ -2453,46 +2453,46 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Nitrate Nitrogen (NO3)</t>
+          <t>pH</t>
         </is>
       </c>
       <c r="C23" t="n">
         <v>10</v>
       </c>
       <c r="D23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope influenced by censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>0.0272422476280324</v>
+        <v>0.234129159437691</v>
       </c>
       <c r="G23" t="n">
-        <v>0.333333333333333</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0.444444444444444</v>
+        <v>0.6</v>
       </c>
       <c r="I23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0.011</v>
+        <v>7.91</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>-0.0059975369458128</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>-0.0194615471921137</v>
       </c>
       <c r="M23" t="n">
-        <v>0.0004986096923706</v>
+        <v>0.0081106767658056</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>-0.07582221170433449</v>
       </c>
       <c r="O23" t="inlineStr">
         <is>
@@ -2501,7 +2501,7 @@
       </c>
       <c r="P23" t="inlineStr">
         <is>
-          <t>Extremely unlikely improving</t>
+          <t>Unlikely increasing</t>
         </is>
       </c>
       <c r="Q23" t="n">
@@ -2530,11 +2530,7 @@
           <t>Rang_2a</t>
         </is>
       </c>
-      <c r="W23" t="inlineStr">
-        <is>
-          <t>mg/L</t>
-        </is>
-      </c>
+      <c r="W23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -2544,46 +2540,46 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>pH</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C24" t="n">
         <v>10</v>
       </c>
       <c r="D24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>ok</t>
+          <t>WARNING: Sen slope influenced by censored values</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>0.279368939839883</v>
+        <v>0.138684003253847</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>0.0598290598290598</v>
       </c>
       <c r="H24" t="n">
-        <v>0.603448275862069</v>
+        <v>0.512820512820513</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J24" t="n">
-        <v>7.92</v>
+        <v>0.016</v>
       </c>
       <c r="K24" t="n">
-        <v>-0.0053543956043956</v>
+        <v>0.000799671592775</v>
       </c>
       <c r="L24" t="n">
-        <v>-0.0193035317800445</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>0.009596791014652601</v>
+        <v>0.0014910114042543</v>
       </c>
       <c r="N24" t="n">
-        <v>-0.0676060051060058</v>
+        <v>4.99794745484401</v>
       </c>
       <c r="O24" t="inlineStr">
         <is>
@@ -2592,7 +2588,7 @@
       </c>
       <c r="P24" t="inlineStr">
         <is>
-          <t>Unlikely increasing</t>
+          <t>Unlikely improving</t>
         </is>
       </c>
       <c r="Q24" t="n">
@@ -2621,7 +2617,11 @@
           <t>Rang_2a</t>
         </is>
       </c>
-      <c r="W24" t="inlineStr"/>
+      <c r="W24" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -2631,7 +2631,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>SIN (Soluble Inorganic nitrogen)</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C25" t="n">
@@ -2642,35 +2642,35 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>ok</t>
+          <t>WARNING: Sen slope influenced by censored values</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>0.156695255600982</v>
+        <v>0.393501470432972</v>
       </c>
       <c r="G25" t="n">
-        <v>0.0598290598290598</v>
+        <v>0.0512820512820513</v>
       </c>
       <c r="H25" t="n">
-        <v>0.418803418803419</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="I25" t="n">
         <v>1</v>
       </c>
       <c r="J25" t="n">
-        <v>0.015</v>
+        <v>0.09</v>
       </c>
       <c r="K25" t="n">
-        <v>0.0006241455912508001</v>
+        <v>0</v>
       </c>
       <c r="L25" t="n">
-        <v>0</v>
+        <v>-0.0019991789819376</v>
       </c>
       <c r="M25" t="n">
-        <v>0.001163409067788</v>
+        <v>0.0028333399202081</v>
       </c>
       <c r="N25" t="n">
-        <v>4.16097060833903</v>
+        <v>0</v>
       </c>
       <c r="O25" t="inlineStr">
         <is>
@@ -2679,7 +2679,7 @@
       </c>
       <c r="P25" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>As likely as not improving</t>
         </is>
       </c>
       <c r="Q25" t="n">
@@ -2722,7 +2722,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Suspended Sediment Concentration</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C26" t="n">
@@ -2733,35 +2733,35 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope influenced by censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>0.940089696490046</v>
+        <v>0.0270955016430145</v>
       </c>
       <c r="G26" t="n">
-        <v>0.333333333333333</v>
+        <v>0.0170940170940171</v>
       </c>
       <c r="H26" t="n">
-        <v>0.128205128205128</v>
+        <v>0.205128205128205</v>
       </c>
       <c r="I26" t="n">
         <v>1</v>
       </c>
       <c r="J26" t="n">
-        <v>1</v>
+        <v>0.011</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>0.0003286847296504</v>
       </c>
       <c r="L26" t="n">
         <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>0.0006190687655533</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>2.98804299682224</v>
       </c>
       <c r="O26" t="inlineStr">
         <is>
@@ -2770,7 +2770,7 @@
       </c>
       <c r="P26" t="inlineStr">
         <is>
-          <t>Very likely improving</t>
+          <t>Extremely unlikely improving</t>
         </is>
       </c>
       <c r="Q26" t="n">
@@ -2801,7 +2801,7 @@
       </c>
       <c r="W26" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>g/m3</t>
         </is>
       </c>
     </row>
@@ -2813,7 +2813,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Total Nitrogen</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C27" t="n">
@@ -2828,31 +2828,31 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>0.915620453744583</v>
+        <v>0.278204117370759</v>
       </c>
       <c r="G27" t="n">
-        <v>0.0512820512820513</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>0.393162393162393</v>
+        <v>0.82051282051282</v>
       </c>
       <c r="I27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0.08</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="K27" t="n">
-        <v>-0.001661737943585</v>
+        <v>0.0100205761316872</v>
       </c>
       <c r="L27" t="n">
-        <v>-0.0038993974741669</v>
+        <v>-0.0203698861226463</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>0.0371657043982903</v>
       </c>
       <c r="N27" t="n">
-        <v>-2.07717242948135</v>
+        <v>1.06601873741353</v>
       </c>
       <c r="O27" t="inlineStr">
         <is>
@@ -2861,7 +2861,7 @@
       </c>
       <c r="P27" t="inlineStr">
         <is>
-          <t>Very likely improving</t>
+          <t>Unlikely improving</t>
         </is>
       </c>
       <c r="Q27" t="n">
@@ -2892,7 +2892,7 @@
       </c>
       <c r="W27" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>NTU/FNU</t>
         </is>
       </c>
     </row>
@@ -2904,14 +2904,14 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Total Phosphorus</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
@@ -2919,31 +2919,31 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>0.132708039027651</v>
+        <v>0.0057384072681969</v>
       </c>
       <c r="G28" t="n">
-        <v>0.0170940170940171</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0.196581196581197</v>
+        <v>0.680851063829787</v>
       </c>
       <c r="I28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>0.011</v>
+        <v>2.45</v>
       </c>
       <c r="K28" t="n">
-        <v>0.0001667047010497</v>
+        <v>0.119524369502197</v>
       </c>
       <c r="L28" t="n">
-        <v>0</v>
+        <v>0.0391898744480867</v>
       </c>
       <c r="M28" t="n">
-        <v>0.000499945555277</v>
+        <v>0.210592559201818</v>
       </c>
       <c r="N28" t="n">
-        <v>1.51549728227044</v>
+        <v>4.87854569396722</v>
       </c>
       <c r="O28" t="inlineStr">
         <is>
@@ -2952,7 +2952,7 @@
       </c>
       <c r="P28" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>Exceptionally unlikely improving</t>
         </is>
       </c>
       <c r="Q28" t="n">
@@ -2983,7 +2983,7 @@
       </c>
       <c r="W28" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>mg/m2</t>
         </is>
       </c>
     </row>
@@ -2995,46 +2995,46 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Turbidity</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D29" t="b">
         <v>1</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>ok</t>
+          <t>WARNING: Sen slope influenced by censored values</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>0.52132182079884</v>
+        <v>0.477047677507167</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>0.0748299319727891</v>
       </c>
       <c r="H29" t="n">
-        <v>0.837606837606838</v>
+        <v>0.482993197278912</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J29" t="n">
-        <v>0.9399999999999999</v>
+        <v>2.6</v>
       </c>
       <c r="K29" t="n">
-        <v>-0.0033265027322404</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>-0.0308194010945007</v>
+        <v>-0.0665964873919465</v>
       </c>
       <c r="M29" t="n">
-        <v>0.021137631758766</v>
+        <v>0.0497067439247494</v>
       </c>
       <c r="N29" t="n">
-        <v>-0.353883269387281</v>
+        <v>0</v>
       </c>
       <c r="O29" t="inlineStr">
         <is>
@@ -3074,7 +3074,7 @@
       </c>
       <c r="W29" t="inlineStr">
         <is>
-          <t>NTU/FNU</t>
+          <t>m</t>
         </is>
       </c>
     </row>
@@ -3086,14 +3086,14 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Chlorophyll A</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C30" t="n">
         <v>15</v>
       </c>
       <c r="D30" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
@@ -3101,31 +3101,31 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>0.0004099731915852</v>
+        <v>0.240657027791517</v>
       </c>
       <c r="G30" t="n">
         <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>0.699248120300752</v>
+        <v>0.827586206896552</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>2.5</v>
+        <v>10.975</v>
       </c>
       <c r="K30" t="n">
-        <v>0.182822893286554</v>
+        <v>-0.0066895604395603</v>
       </c>
       <c r="L30" t="n">
-        <v>0.0981217718025377</v>
+        <v>-0.0266545272802461</v>
       </c>
       <c r="M30" t="n">
-        <v>0.277448408825045</v>
+        <v>0.0121767884689851</v>
       </c>
       <c r="N30" t="n">
-        <v>7.31291573146218</v>
+        <v>-0.0609527147112556</v>
       </c>
       <c r="O30" t="inlineStr">
         <is>
@@ -3134,7 +3134,7 @@
       </c>
       <c r="P30" t="inlineStr">
         <is>
-          <t>Exceptionally unlikely improving</t>
+          <t>Unlikely increasing</t>
         </is>
       </c>
       <c r="Q30" t="n">
@@ -3165,7 +3165,7 @@
       </c>
       <c r="W30" t="inlineStr">
         <is>
-          <t>mg/m2</t>
+          <t>g/m3</t>
         </is>
       </c>
     </row>
@@ -3177,46 +3177,46 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Visual Clarity</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C31" t="n">
         <v>15</v>
       </c>
       <c r="D31" t="b">
+        <v>0</v>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F31" t="n">
+        <v>0.0007584536325091</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0.259887005649718</v>
+      </c>
+      <c r="H31" t="n">
+        <v>0.0903954802259887</v>
+      </c>
+      <c r="I31" t="n">
         <v>1</v>
       </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>ok</t>
-        </is>
-      </c>
-      <c r="F31" t="n">
-        <v>0.311203420101957</v>
-      </c>
-      <c r="G31" t="n">
-        <v>0.0641025641025641</v>
-      </c>
-      <c r="H31" t="n">
-        <v>0.493589743589744</v>
-      </c>
-      <c r="I31" t="n">
-        <v>6</v>
-      </c>
       <c r="J31" t="n">
-        <v>2.665</v>
+        <v>0.007</v>
       </c>
       <c r="K31" t="n">
-        <v>-0.025802590266876</v>
+        <v>0.000146363742126</v>
       </c>
       <c r="L31" t="n">
-        <v>-0.0718684994391032</v>
+        <v>0</v>
       </c>
       <c r="M31" t="n">
-        <v>0.0289962942731432</v>
+        <v>0.0002731862378459</v>
       </c>
       <c r="N31" t="n">
-        <v>-0.968202261421238</v>
+        <v>2.09091060180091</v>
       </c>
       <c r="O31" t="inlineStr">
         <is>
@@ -3225,7 +3225,7 @@
       </c>
       <c r="P31" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>Exceptionally unlikely improving</t>
         </is>
       </c>
       <c r="Q31" t="n">
@@ -3256,7 +3256,7 @@
       </c>
       <c r="W31" t="inlineStr">
         <is>
-          <t>m</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -3268,46 +3268,46 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Dissolved Oxygen Concentration</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C32" t="n">
         <v>15</v>
       </c>
       <c r="D32" t="b">
+        <v>0</v>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F32" t="n">
+        <v>0.11777506245728</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0.0112994350282486</v>
+      </c>
+      <c r="H32" t="n">
+        <v>0.418079096045198</v>
+      </c>
+      <c r="I32" t="n">
         <v>1</v>
       </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>ok</t>
-        </is>
-      </c>
-      <c r="F32" t="n">
-        <v>0.010107563724889</v>
-      </c>
-      <c r="G32" t="n">
-        <v>0</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0.839080459770115</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
       <c r="J32" t="n">
-        <v>11.06</v>
+        <v>27</v>
       </c>
       <c r="K32" t="n">
-        <v>-0.0301030219780219</v>
+        <v>0.501034698991739</v>
       </c>
       <c r="L32" t="n">
-        <v>-0.0501717032967026</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>-0.0066895604395603</v>
+        <v>1.26493506493507</v>
       </c>
       <c r="N32" t="n">
-        <v>-0.27217922222443</v>
+        <v>1.85568407033977</v>
       </c>
       <c r="O32" t="inlineStr">
         <is>
@@ -3316,7 +3316,7 @@
       </c>
       <c r="P32" t="inlineStr">
         <is>
-          <t>Extremely unlikely increasing</t>
+          <t>Unlikely improving</t>
         </is>
       </c>
       <c r="Q32" t="n">
@@ -3347,7 +3347,7 @@
       </c>
       <c r="W32" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>E. coli/100 mL</t>
         </is>
       </c>
     </row>
@@ -3359,7 +3359,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Dissolved Reactive Phosphorus</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C33" t="n">
@@ -3370,35 +3370,35 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>ok</t>
+          <t>WARNING: Sen slope based on two censored values</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>6.25690941616893e-06</v>
+        <v>0.99069576022039</v>
       </c>
       <c r="G33" t="n">
-        <v>0.299435028248588</v>
+        <v>0.868571428571429</v>
       </c>
       <c r="H33" t="n">
-        <v>0.07909604519774011</v>
+        <v>0.211428571428571</v>
       </c>
       <c r="I33" t="n">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="J33" t="n">
-        <v>0.006</v>
+        <v>0.005</v>
       </c>
       <c r="K33" t="n">
-        <v>0.0002339097261924</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>0.0003572529527459</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>3.89849543654097</v>
+        <v>0</v>
       </c>
       <c r="O33" t="inlineStr">
         <is>
@@ -3407,7 +3407,7 @@
       </c>
       <c r="P33" t="inlineStr">
         <is>
-          <t>Exceptionally unlikely improving</t>
+          <t>Virtually certain improving</t>
         </is>
       </c>
       <c r="Q33" t="n">
@@ -3450,7 +3450,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>E. coli</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C34" t="n">
@@ -3461,35 +3461,35 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>ok</t>
+          <t>WARNING: Sen slope influenced by censored values</t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v>0.205623046915619</v>
+        <v>0.921445695982704</v>
       </c>
       <c r="G34" t="n">
-        <v>0.0225988700564972</v>
+        <v>0.688622754491018</v>
       </c>
       <c r="H34" t="n">
-        <v>0.418079096045198</v>
+        <v>0.0538922155688623</v>
       </c>
       <c r="I34" t="n">
         <v>2</v>
       </c>
       <c r="J34" t="n">
-        <v>25</v>
+        <v>0.001</v>
       </c>
       <c r="K34" t="n">
-        <v>0.241037242011232</v>
+        <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>-0.173584607110968</v>
+        <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>0.9945448726735</v>
+        <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>0.964148968044929</v>
+        <v>0</v>
       </c>
       <c r="O34" t="inlineStr">
         <is>
@@ -3498,7 +3498,7 @@
       </c>
       <c r="P34" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>Very likely improving</t>
         </is>
       </c>
       <c r="Q34" t="n">
@@ -3529,7 +3529,7 @@
       </c>
       <c r="W34" t="inlineStr">
         <is>
-          <t>E. coli/100 mL</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -3541,34 +3541,34 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Ammoniacal Nitrogen (NH4)</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C35" t="n">
         <v>15</v>
       </c>
       <c r="D35" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope based on two censored values</t>
+          <t>WARNING: Sen slope influenced by censored values</t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>0.9519645677892981</v>
+        <v>0.0145872249754868</v>
       </c>
       <c r="G35" t="n">
-        <v>0.863636363636364</v>
+        <v>0.29940119760479</v>
       </c>
       <c r="H35" t="n">
-        <v>0.215909090909091</v>
+        <v>0.389221556886228</v>
       </c>
       <c r="I35" t="n">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="J35" t="n">
-        <v>0.005</v>
+        <v>0.012</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -3577,7 +3577,7 @@
         <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>0.0004166113905978</v>
       </c>
       <c r="N35" t="n">
         <v>0</v>
@@ -3589,7 +3589,7 @@
       </c>
       <c r="P35" t="inlineStr">
         <is>
-          <t>Extremely likely improving</t>
+          <t>Extremely unlikely improving</t>
         </is>
       </c>
       <c r="Q35" t="n">
@@ -3632,7 +3632,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Nitrite Nitrogen (NO2)</t>
+          <t>pH</t>
         </is>
       </c>
       <c r="C36" t="n">
@@ -3643,35 +3643,35 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope influenced by censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F36" t="n">
-        <v>0.822960811164394</v>
+        <v>0.998064481300176</v>
       </c>
       <c r="G36" t="n">
-        <v>0.670967741935484</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>0.0580645161290323</v>
+        <v>0.563218390804598</v>
       </c>
       <c r="I36" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0.001</v>
+        <v>7.895</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>0.021046818727491</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>0.0089761114447194</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>0.0324583238042675</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>0.266584151076517</v>
       </c>
       <c r="O36" t="inlineStr">
         <is>
@@ -3680,7 +3680,7 @@
       </c>
       <c r="P36" t="inlineStr">
         <is>
-          <t>Likely improving</t>
+          <t>Virtually certain increasing</t>
         </is>
       </c>
       <c r="Q36" t="n">
@@ -3709,11 +3709,7 @@
           <t>Rang_2a</t>
         </is>
       </c>
-      <c r="W36" t="inlineStr">
-        <is>
-          <t>mg/L</t>
-        </is>
-      </c>
+      <c r="W36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -3723,7 +3719,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Nitrate Nitrogen (NO3)</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C37" t="n">
@@ -3738,28 +3734,28 @@
         </is>
       </c>
       <c r="F37" t="n">
-        <v>0.270192168444704</v>
+        <v>0.5874704598191191</v>
       </c>
       <c r="G37" t="n">
-        <v>0.316455696202532</v>
+        <v>0.0451977401129944</v>
       </c>
       <c r="H37" t="n">
-        <v>0.39873417721519</v>
+        <v>0.5310734463276841</v>
       </c>
       <c r="I37" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J37" t="n">
-        <v>0.0115</v>
+        <v>0.021</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>0</v>
+        <v>-0.000365393425148</v>
       </c>
       <c r="M37" t="n">
-        <v>0</v>
+        <v>0.0004208083859809</v>
       </c>
       <c r="N37" t="n">
         <v>0</v>
@@ -3771,7 +3767,7 @@
       </c>
       <c r="P37" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>As likely as not improving</t>
         </is>
       </c>
       <c r="Q37" t="n">
@@ -3802,7 +3798,7 @@
       </c>
       <c r="W37" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>g/m3</t>
         </is>
       </c>
     </row>
@@ -3814,14 +3810,14 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>pH</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C38" t="n">
         <v>15</v>
       </c>
       <c r="D38" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
@@ -3829,31 +3825,31 @@
         </is>
       </c>
       <c r="F38" t="n">
-        <v>0.999993085054796</v>
+        <v>0.992387777953898</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>0.0451977401129944</v>
       </c>
       <c r="H38" t="n">
-        <v>0.611428571428571</v>
+        <v>0.389830508474576</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J38" t="n">
-        <v>7.87</v>
+        <v>0.092</v>
       </c>
       <c r="K38" t="n">
-        <v>0.0323881499395405</v>
+        <v>-0.0018609676404808</v>
       </c>
       <c r="L38" t="n">
-        <v>0.0208714285714286</v>
+        <v>-0.0033374894347168</v>
       </c>
       <c r="M38" t="n">
-        <v>0.044463215829999</v>
+        <v>-0.000200950133656</v>
       </c>
       <c r="N38" t="n">
-        <v>0.411539389320717</v>
+        <v>-2.02279091356614</v>
       </c>
       <c r="O38" t="inlineStr">
         <is>
@@ -3862,7 +3858,7 @@
       </c>
       <c r="P38" t="inlineStr">
         <is>
-          <t>Virtually certain increasing</t>
+          <t>Virtually certain improving</t>
         </is>
       </c>
       <c r="Q38" t="n">
@@ -3891,7 +3887,11 @@
           <t>Rang_2a</t>
         </is>
       </c>
-      <c r="W38" t="inlineStr"/>
+      <c r="W38" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -3901,7 +3901,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>SIN (Soluble Inorganic nitrogen)</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C39" t="n">
@@ -3912,35 +3912,35 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>ok</t>
+          <t>WARNING: Sen slope influenced by censored values</t>
         </is>
       </c>
       <c r="F39" t="n">
-        <v>0.964087630583478</v>
+        <v>0.599112997738985</v>
       </c>
       <c r="G39" t="n">
-        <v>0.0451977401129944</v>
+        <v>0.0508474576271186</v>
       </c>
       <c r="H39" t="n">
-        <v>0.395480225988701</v>
+        <v>0.19774011299435</v>
       </c>
       <c r="I39" t="n">
         <v>2</v>
       </c>
       <c r="J39" t="n">
-        <v>0.02</v>
+        <v>0.011</v>
       </c>
       <c r="K39" t="n">
-        <v>-0.0003574574280681</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>-0.0006661198437257</v>
+        <v>-0.0001516977884086</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>0.0001667047010497</v>
       </c>
       <c r="N39" t="n">
-        <v>-1.78728714034058</v>
+        <v>0</v>
       </c>
       <c r="O39" t="inlineStr">
         <is>
@@ -3949,7 +3949,7 @@
       </c>
       <c r="P39" t="inlineStr">
         <is>
-          <t>Extremely likely improving</t>
+          <t>As likely as not improving</t>
         </is>
       </c>
       <c r="Q39" t="n">
@@ -3992,7 +3992,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Total Nitrogen</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C40" t="n">
@@ -4003,35 +4003,35 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>ok</t>
+          <t>WARNING: Sen slope based on tied non-censored values</t>
         </is>
       </c>
       <c r="F40" t="n">
-        <v>0.998590934099186</v>
+        <v>0.5</v>
       </c>
       <c r="G40" t="n">
-        <v>0.0564971751412429</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0.389830508474576</v>
+        <v>0.819209039548023</v>
       </c>
       <c r="I40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>0.09</v>
+        <v>0.96</v>
       </c>
       <c r="K40" t="n">
-        <v>-0.0023139068705978</v>
+        <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>-0.0036424831712789</v>
+        <v>-0.0159063133021861</v>
       </c>
       <c r="M40" t="n">
-        <v>-0.0007697576396206</v>
+        <v>0.0138524327391792</v>
       </c>
       <c r="N40" t="n">
-        <v>-2.57100763399764</v>
+        <v>0</v>
       </c>
       <c r="O40" t="inlineStr">
         <is>
@@ -4040,7 +4040,7 @@
       </c>
       <c r="P40" t="inlineStr">
         <is>
-          <t>Virtually certain improving</t>
+          <t>As likely as not improving</t>
         </is>
       </c>
       <c r="Q40" t="n">
@@ -4071,7 +4071,7 @@
       </c>
       <c r="W40" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>NTU/FNU</t>
         </is>
       </c>
     </row>
@@ -4083,46 +4083,46 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Total Phosphorus</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D41" t="b">
         <v>1</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope influenced by censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F41" t="n">
-        <v>0.681868210269797</v>
+        <v>0.030554834911202</v>
       </c>
       <c r="G41" t="n">
-        <v>0.0564971751412429</v>
+        <v>0.0533980582524272</v>
       </c>
       <c r="H41" t="n">
-        <v>0.186440677966102</v>
+        <v>0.548543689320388</v>
       </c>
       <c r="I41" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="J41" t="n">
-        <v>0.011</v>
+        <v>2.7</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>-0.0439153211954655</v>
       </c>
       <c r="L41" t="n">
-        <v>-0.0001671906790824</v>
+        <v>-0.0787263513269072</v>
       </c>
       <c r="M41" t="n">
-        <v>0.0001432445302803</v>
+        <v>-0.0114272043435639</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>-1.62649337760983</v>
       </c>
       <c r="O41" t="inlineStr">
         <is>
@@ -4131,7 +4131,7 @@
       </c>
       <c r="P41" t="inlineStr">
         <is>
-          <t>Likely improving</t>
+          <t>Extremely unlikely improving</t>
         </is>
       </c>
       <c r="Q41" t="n">
@@ -4162,7 +4162,7 @@
       </c>
       <c r="W41" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>m</t>
         </is>
       </c>
     </row>
@@ -4174,46 +4174,46 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Turbidity</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D42" t="b">
+        <v>0</v>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>WARNING: Sen slope influenced by censored values</t>
+        </is>
+      </c>
+      <c r="F42" t="n">
+        <v>0.0725450774071594</v>
+      </c>
+      <c r="G42" t="n">
+        <v>0.271186440677966</v>
+      </c>
+      <c r="H42" t="n">
+        <v>0.0847457627118644</v>
+      </c>
+      <c r="I42" t="n">
         <v>1</v>
       </c>
-      <c r="E42" t="inlineStr">
-        <is>
-          <t>ok</t>
-        </is>
-      </c>
-      <c r="F42" t="n">
-        <v>0.12393590410302</v>
-      </c>
-      <c r="G42" t="n">
-        <v>0</v>
-      </c>
-      <c r="H42" t="n">
-        <v>0.84180790960452</v>
-      </c>
-      <c r="I42" t="n">
-        <v>0</v>
-      </c>
       <c r="J42" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.007</v>
       </c>
       <c r="K42" t="n">
-        <v>0.0083020678275137</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>-0.0049859571272815</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>0.0198990999150541</v>
+        <v>6.864808446273161e-05</v>
       </c>
       <c r="N42" t="n">
-        <v>0.883198705054653</v>
+        <v>0</v>
       </c>
       <c r="O42" t="inlineStr">
         <is>
@@ -4222,7 +4222,7 @@
       </c>
       <c r="P42" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>Very unlikely improving</t>
         </is>
       </c>
       <c r="Q42" t="n">
@@ -4253,7 +4253,7 @@
       </c>
       <c r="W42" t="inlineStr">
         <is>
-          <t>NTU/FNU</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -4265,14 +4265,14 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Visual Clarity</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C43" t="n">
         <v>20</v>
       </c>
       <c r="D43" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
@@ -4280,31 +4280,31 @@
         </is>
       </c>
       <c r="F43" t="n">
-        <v>0.04022663524769</v>
+        <v>0.0349693277355885</v>
       </c>
       <c r="G43" t="n">
-        <v>0.0465116279069767</v>
+        <v>0.038135593220339</v>
       </c>
       <c r="H43" t="n">
-        <v>0.562790697674419</v>
+        <v>0.355932203389831</v>
       </c>
       <c r="I43" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="J43" t="n">
-        <v>2.7</v>
+        <v>25</v>
       </c>
       <c r="K43" t="n">
-        <v>-0.0380958026904472</v>
+        <v>0.435166867681662</v>
       </c>
       <c r="L43" t="n">
-        <v>-0.0669421884418393</v>
+        <v>0</v>
       </c>
       <c r="M43" t="n">
-        <v>-0.006786266559988</v>
+        <v>0.892201985568847</v>
       </c>
       <c r="N43" t="n">
-        <v>-1.41095565520175</v>
+        <v>1.74066747072665</v>
       </c>
       <c r="O43" t="inlineStr">
         <is>
@@ -4344,7 +4344,7 @@
       </c>
       <c r="W43" t="inlineStr">
         <is>
-          <t>m</t>
+          <t>E. coli/100 mL</t>
         </is>
       </c>
     </row>
@@ -4356,7 +4356,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Dissolved Reactive Phosphorus</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C44" t="n">
@@ -4367,23 +4367,23 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope influenced by censored values</t>
+          <t>WARNING: Sen slope based on two censored values</t>
         </is>
       </c>
       <c r="F44" t="n">
-        <v>0.0096052883231152</v>
+        <v>0.834688944493437</v>
       </c>
       <c r="G44" t="n">
-        <v>0.305084745762712</v>
+        <v>0.882352941176471</v>
       </c>
       <c r="H44" t="n">
-        <v>0.08050847457627119</v>
+        <v>0.190045248868778</v>
       </c>
       <c r="I44" t="n">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="J44" t="n">
-        <v>0.006</v>
+        <v>0.005</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -4392,7 +4392,7 @@
         <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>0.0001166001596169</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
         <v>0</v>
@@ -4404,7 +4404,7 @@
       </c>
       <c r="P44" t="inlineStr">
         <is>
-          <t>Exceptionally unlikely improving</t>
+          <t>Likely improving</t>
         </is>
       </c>
       <c r="Q44" t="n">
@@ -4447,14 +4447,14 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>E. coli</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C45" t="n">
         <v>20</v>
       </c>
       <c r="D45" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
@@ -4462,28 +4462,28 @@
         </is>
       </c>
       <c r="F45" t="n">
-        <v>0.271941198686384</v>
+        <v>0.459231610947831</v>
       </c>
       <c r="G45" t="n">
-        <v>0.038135593220339</v>
+        <v>0.354838709677419</v>
       </c>
       <c r="H45" t="n">
-        <v>0.355932203389831</v>
+        <v>0.331797235023041</v>
       </c>
       <c r="I45" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J45" t="n">
-        <v>23.5</v>
+        <v>0.012</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>-0.157164371772806</v>
+        <v>-0.0003120916413454</v>
       </c>
       <c r="M45" t="n">
-        <v>0.529734722176151</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
         <v>0</v>
@@ -4495,7 +4495,7 @@
       </c>
       <c r="P45" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>As likely as not improving</t>
         </is>
       </c>
       <c r="Q45" t="n">
@@ -4526,7 +4526,7 @@
       </c>
       <c r="W45" t="inlineStr">
         <is>
-          <t>E. coli/100 mL</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -4538,46 +4538,46 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Ammoniacal Nitrogen (NH4)</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C46" t="n">
         <v>20</v>
       </c>
       <c r="D46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope based on two censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F46" t="n">
-        <v>0.6655912234917311</v>
+        <v>0.969996387761678</v>
       </c>
       <c r="G46" t="n">
-        <v>0.878378378378378</v>
+        <v>0.09375</v>
       </c>
       <c r="H46" t="n">
-        <v>0.193693693693694</v>
+        <v>0.459821428571429</v>
       </c>
       <c r="I46" t="n">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="J46" t="n">
-        <v>0.005</v>
+        <v>0.0228</v>
       </c>
       <c r="K46" t="n">
-        <v>0</v>
+        <v>-0.0003998905234332</v>
       </c>
       <c r="L46" t="n">
-        <v>0</v>
+        <v>-0.0006427242573757</v>
       </c>
       <c r="M46" t="n">
-        <v>0</v>
+        <v>-9.75694398047e-05</v>
       </c>
       <c r="N46" t="n">
-        <v>0</v>
+        <v>-1.75390580453197</v>
       </c>
       <c r="O46" t="inlineStr">
         <is>
@@ -4586,7 +4586,7 @@
       </c>
       <c r="P46" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Extremely likely improving</t>
         </is>
       </c>
       <c r="Q46" t="n">
@@ -4617,7 +4617,7 @@
       </c>
       <c r="W46" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>g/m3</t>
         </is>
       </c>
     </row>
@@ -4629,7 +4629,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Nitrate Nitrogen (NO3)</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C47" t="n">
@@ -4640,35 +4640,35 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope influenced by censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F47" t="n">
-        <v>0.804615177577352</v>
+        <v>0.0438337722808072</v>
       </c>
       <c r="G47" t="n">
-        <v>0.391705069124424</v>
+        <v>0</v>
       </c>
       <c r="H47" t="n">
-        <v>0.327188940092166</v>
+        <v>0.75</v>
       </c>
       <c r="I47" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J47" t="n">
-        <v>0.012</v>
+        <v>0.891</v>
       </c>
       <c r="K47" t="n">
-        <v>-0.0002650611678488</v>
+        <v>0.008119628015420099</v>
       </c>
       <c r="L47" t="n">
-        <v>-0.0004416921960657</v>
+        <v>0.0001732759390289</v>
       </c>
       <c r="M47" t="n">
-        <v>0</v>
+        <v>0.0166487426438961</v>
       </c>
       <c r="N47" t="n">
-        <v>-2.20884306540744</v>
+        <v>0.91129382889115</v>
       </c>
       <c r="O47" t="inlineStr">
         <is>
@@ -4677,7 +4677,7 @@
       </c>
       <c r="P47" t="inlineStr">
         <is>
-          <t>Likely improving</t>
+          <t>Extremely unlikely improving</t>
         </is>
       </c>
       <c r="Q47" t="n">
@@ -4708,7 +4708,7 @@
       </c>
       <c r="W47" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>NTU/FNU</t>
         </is>
       </c>
     </row>
@@ -4720,46 +4720,46 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>SIN (Soluble Inorganic nitrogen)</t>
+          <t>ASPM (Macroinvertebrate Average Score Per Metric)</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="D48" t="b">
+        <v>0</v>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F48" t="n">
+        <v>0.59675202974633</v>
+      </c>
+      <c r="G48" t="n">
+        <v>0</v>
+      </c>
+      <c r="H48" t="n">
         <v>1</v>
       </c>
-      <c r="E48" t="inlineStr">
-        <is>
-          <t>ok</t>
-        </is>
-      </c>
-      <c r="F48" t="n">
-        <v>0.9985216818341</v>
-      </c>
-      <c r="G48" t="n">
-        <v>0.111607142857143</v>
-      </c>
-      <c r="H48" t="n">
-        <v>0.339285714285714</v>
-      </c>
       <c r="I48" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="J48" t="n">
-        <v>0.022</v>
+        <v>0.57</v>
       </c>
       <c r="K48" t="n">
-        <v>-0.0005000760658733</v>
+        <v>0.0033736179540309</v>
       </c>
       <c r="L48" t="n">
-        <v>-0.0007503423875827</v>
+        <v>-0.08990904810023929</v>
       </c>
       <c r="M48" t="n">
-        <v>-0.0002608755022971</v>
+        <v>0.0538170771286143</v>
       </c>
       <c r="N48" t="n">
-        <v>-2.27307302669716</v>
+        <v>0.591862798952804</v>
       </c>
       <c r="O48" t="inlineStr">
         <is>
@@ -4768,7 +4768,7 @@
       </c>
       <c r="P48" t="inlineStr">
         <is>
-          <t>Virtually certain improving</t>
+          <t>As likely as not improving</t>
         </is>
       </c>
       <c r="Q48" t="n">
@@ -4797,11 +4797,7 @@
           <t>Rang_2a</t>
         </is>
       </c>
-      <c r="W48" t="inlineStr">
-        <is>
-          <t>g/m3</t>
-        </is>
-      </c>
+      <c r="W48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -4811,46 +4807,46 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Turbidity</t>
+          <t>MCI (Macroinvertebrate Community Index)</t>
         </is>
       </c>
       <c r="C49" t="n">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="D49" t="b">
+        <v>0</v>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F49" t="n">
+        <v>0.768783636774762</v>
+      </c>
+      <c r="G49" t="n">
+        <v>0</v>
+      </c>
+      <c r="H49" t="n">
         <v>1</v>
       </c>
-      <c r="E49" t="inlineStr">
-        <is>
-          <t>ok</t>
-        </is>
-      </c>
-      <c r="F49" t="n">
-        <v>0.0195478192601008</v>
-      </c>
-      <c r="G49" t="n">
-        <v>0</v>
-      </c>
-      <c r="H49" t="n">
-        <v>0.745762711864407</v>
-      </c>
       <c r="I49" t="n">
         <v>0</v>
       </c>
       <c r="J49" t="n">
-        <v>0.867</v>
+        <v>117.65</v>
       </c>
       <c r="K49" t="n">
-        <v>0.009060983530891799</v>
+        <v>2.08841385800901</v>
       </c>
       <c r="L49" t="n">
-        <v>0.0014599040465851</v>
+        <v>-6.68539581762725</v>
       </c>
       <c r="M49" t="n">
-        <v>0.0166678899650522</v>
+        <v>7.75888093989273</v>
       </c>
       <c r="N49" t="n">
-        <v>1.04509613966457</v>
+        <v>1.77510740162262</v>
       </c>
       <c r="O49" t="inlineStr">
         <is>
@@ -4859,7 +4855,7 @@
       </c>
       <c r="P49" t="inlineStr">
         <is>
-          <t>Extremely unlikely improving</t>
+          <t>Likely improving</t>
         </is>
       </c>
       <c r="Q49" t="n">
@@ -4888,11 +4884,7 @@
           <t>Rang_2a</t>
         </is>
       </c>
-      <c r="W49" t="inlineStr">
-        <is>
-          <t>NTU/FNU</t>
-        </is>
-      </c>
+      <c r="W49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -4902,7 +4894,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>ASPM (Macroinvertebrate Average Score Per Metric)</t>
+          <t>QMCI (Quantitative Macroinvertebrate Community Index)</t>
         </is>
       </c>
       <c r="C50" t="n">
@@ -4917,7 +4909,7 @@
         </is>
       </c>
       <c r="F50" t="n">
-        <v>0.40324797025367</v>
+        <v>0.59675202974633</v>
       </c>
       <c r="G50" t="n">
         <v>0</v>
@@ -4929,19 +4921,19 @@
         <v>0</v>
       </c>
       <c r="J50" t="n">
-        <v>0.57</v>
+        <v>6.18</v>
       </c>
       <c r="K50" t="n">
-        <v>-0.0312674835448989</v>
+        <v>0.274062898253179</v>
       </c>
       <c r="L50" t="n">
-        <v>-0.08990904810023929</v>
+        <v>-0.903871997272985</v>
       </c>
       <c r="M50" t="n">
-        <v>0.0190911753572859</v>
+        <v>0.9280519968006929</v>
       </c>
       <c r="N50" t="n">
-        <v>-5.48552342892963</v>
+        <v>4.43467472901584</v>
       </c>
       <c r="O50" t="inlineStr">
         <is>
@@ -4989,11 +4981,11 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>MCI (Macroinvertebrate Community Index)</t>
+          <t>ASPM (Macroinvertebrate Average Score Per Metric)</t>
         </is>
       </c>
       <c r="C51" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D51" t="b">
         <v>0</v>
@@ -5004,7 +4996,7 @@
         </is>
       </c>
       <c r="F51" t="n">
-        <v>0.768783636774762</v>
+        <v>0.141565435331173</v>
       </c>
       <c r="G51" t="n">
         <v>0</v>
@@ -5016,19 +5008,19 @@
         <v>0</v>
       </c>
       <c r="J51" t="n">
-        <v>118</v>
+        <v>0.5705</v>
       </c>
       <c r="K51" t="n">
-        <v>0.763117432320975</v>
+        <v>-0.0055763358778626</v>
       </c>
       <c r="L51" t="n">
-        <v>-12.8794564649799</v>
+        <v>-0.02998886943292</v>
       </c>
       <c r="M51" t="n">
-        <v>7.75888093989273</v>
+        <v>0.0046832262187652</v>
       </c>
       <c r="N51" t="n">
-        <v>0.646709688407605</v>
+        <v>-0.97744713021255</v>
       </c>
       <c r="O51" t="inlineStr">
         <is>
@@ -5037,7 +5029,7 @@
       </c>
       <c r="P51" t="inlineStr">
         <is>
-          <t>Likely improving</t>
+          <t>Unlikely improving</t>
         </is>
       </c>
       <c r="Q51" t="n">
@@ -5076,11 +5068,11 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>QMCI (Quantitative Macroinvertebrate Community Index)</t>
+          <t>MCI (Macroinvertebrate Community Index)</t>
         </is>
       </c>
       <c r="C52" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D52" t="b">
         <v>0</v>
@@ -5091,31 +5083,31 @@
         </is>
       </c>
       <c r="F52" t="n">
-        <v>0.110335680959923</v>
+        <v>0.816383805979686</v>
       </c>
       <c r="G52" t="n">
         <v>0</v>
       </c>
       <c r="H52" t="n">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="I52" t="n">
         <v>0</v>
       </c>
       <c r="J52" t="n">
-        <v>6.18</v>
+        <v>114</v>
       </c>
       <c r="K52" t="n">
-        <v>-0.401707265710704</v>
+        <v>0.515162200282087</v>
       </c>
       <c r="L52" t="n">
-        <v>-0.903871997272985</v>
+        <v>-0.820877887310097</v>
       </c>
       <c r="M52" t="n">
-        <v>0.0921679084018449</v>
+        <v>1.42028680263843</v>
       </c>
       <c r="N52" t="n">
-        <v>-6.50011756813436</v>
+        <v>0.451896666914112</v>
       </c>
       <c r="O52" t="inlineStr">
         <is>
@@ -5124,7 +5116,7 @@
       </c>
       <c r="P52" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>Likely improving</t>
         </is>
       </c>
       <c r="Q52" t="n">
@@ -5163,7 +5155,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>ASPM (Macroinvertebrate Average Score Per Metric)</t>
+          <t>QMCI (Quantitative Macroinvertebrate Community Index)</t>
         </is>
       </c>
       <c r="C53" t="n">
@@ -5178,7 +5170,7 @@
         </is>
       </c>
       <c r="F53" t="n">
-        <v>0.036819135060151</v>
+        <v>0.963180864939849</v>
       </c>
       <c r="G53" t="n">
         <v>0</v>
@@ -5190,19 +5182,19 @@
         <v>0</v>
       </c>
       <c r="J53" t="n">
-        <v>0.579</v>
+        <v>5.42</v>
       </c>
       <c r="K53" t="n">
-        <v>-0.0193064800313234</v>
+        <v>0.189610655737705</v>
       </c>
       <c r="L53" t="n">
-        <v>-0.0315828653256116</v>
+        <v>0.0351854734093856</v>
       </c>
       <c r="M53" t="n">
-        <v>-0.0007544516270396</v>
+        <v>0.321003574486432</v>
       </c>
       <c r="N53" t="n">
-        <v>-3.33445250972771</v>
+        <v>3.49835158187647</v>
       </c>
       <c r="O53" t="inlineStr">
         <is>
@@ -5211,7 +5203,7 @@
       </c>
       <c r="P53" t="inlineStr">
         <is>
-          <t>Extremely unlikely improving</t>
+          <t>Extremely likely improving</t>
         </is>
       </c>
       <c r="Q53" t="n">
@@ -5250,46 +5242,46 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>MCI (Macroinvertebrate Community Index)</t>
+          <t>ASPM (Macroinvertebrate Average Score Per Metric)</t>
         </is>
       </c>
       <c r="C54" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D54" t="b">
         <v>0</v>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope based on tied non-censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F54" t="n">
-        <v>0.5</v>
+        <v>0.456407013592038</v>
       </c>
       <c r="G54" t="n">
         <v>0</v>
       </c>
       <c r="H54" t="n">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="I54" t="n">
         <v>0</v>
       </c>
       <c r="J54" t="n">
-        <v>114</v>
+        <v>0.5639999999999999</v>
       </c>
       <c r="K54" t="n">
-        <v>0</v>
+        <v>-0.0005115546218487</v>
       </c>
       <c r="L54" t="n">
-        <v>-1.83184111547544</v>
+        <v>-0.0107452003637188</v>
       </c>
       <c r="M54" t="n">
-        <v>1.00976688775975</v>
+        <v>0.0067940835425472</v>
       </c>
       <c r="N54" t="n">
-        <v>0</v>
+        <v>-0.090701174086656</v>
       </c>
       <c r="O54" t="inlineStr">
         <is>
@@ -5337,11 +5329,11 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>QMCI (Quantitative Macroinvertebrate Community Index)</t>
+          <t>MCI (Macroinvertebrate Community Index)</t>
         </is>
       </c>
       <c r="C55" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D55" t="b">
         <v>0</v>
@@ -5352,31 +5344,31 @@
         </is>
       </c>
       <c r="F55" t="n">
-        <v>0.570986171506239</v>
+        <v>0.045431216779848</v>
       </c>
       <c r="G55" t="n">
         <v>0</v>
       </c>
       <c r="H55" t="n">
-        <v>1</v>
+        <v>0.7333333333333329</v>
       </c>
       <c r="I55" t="n">
         <v>0</v>
       </c>
       <c r="J55" t="n">
-        <v>5.42</v>
+        <v>118</v>
       </c>
       <c r="K55" t="n">
-        <v>0.051155462184874</v>
+        <v>-0.867969501635559</v>
       </c>
       <c r="L55" t="n">
-        <v>-0.254779288764067</v>
+        <v>-1.96675192904049</v>
       </c>
       <c r="M55" t="n">
-        <v>0.204594847465853</v>
+        <v>0</v>
       </c>
       <c r="N55" t="n">
-        <v>0.943827715588081</v>
+        <v>-0.735567374267423</v>
       </c>
       <c r="O55" t="inlineStr">
         <is>
@@ -5385,7 +5377,7 @@
       </c>
       <c r="P55" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Extremely unlikely improving</t>
         </is>
       </c>
       <c r="Q55" t="n">
@@ -5424,7 +5416,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>MCI (Macroinvertebrate Community Index)</t>
+          <t>QMCI (Quantitative Macroinvertebrate Community Index)</t>
         </is>
       </c>
       <c r="C56" t="n">
@@ -5439,31 +5431,31 @@
         </is>
       </c>
       <c r="F56" t="n">
-        <v>0.067857381894597</v>
+        <v>0.649432865344804</v>
       </c>
       <c r="G56" t="n">
         <v>0</v>
       </c>
       <c r="H56" t="n">
-        <v>0.7333333333333329</v>
+        <v>0.928571428571429</v>
       </c>
       <c r="I56" t="n">
         <v>0</v>
       </c>
       <c r="J56" t="n">
-        <v>118</v>
+        <v>5.9</v>
       </c>
       <c r="K56" t="n">
-        <v>-0.8249058971141781</v>
+        <v>0.0281774349083896</v>
       </c>
       <c r="L56" t="n">
-        <v>-1.91431369699011</v>
+        <v>-0.106800766625825</v>
       </c>
       <c r="M56" t="n">
-        <v>0</v>
+        <v>0.1432214056081</v>
       </c>
       <c r="N56" t="n">
-        <v>-0.699072794164558</v>
+        <v>0.477583642515078</v>
       </c>
       <c r="O56" t="inlineStr">
         <is>
@@ -5472,7 +5464,7 @@
       </c>
       <c r="P56" t="inlineStr">
         <is>
-          <t>Very unlikely improving</t>
+          <t>As likely as not improving</t>
         </is>
       </c>
       <c r="Q56" t="n">
@@ -5526,7 +5518,7 @@
         </is>
       </c>
       <c r="F57" t="n">
-        <v>0.155810538346123</v>
+        <v>0.054872708656691</v>
       </c>
       <c r="G57" t="n">
         <v>0</v>
@@ -5541,16 +5533,16 @@
         <v>118.5</v>
       </c>
       <c r="K57" t="n">
-        <v>-0.232443889253716</v>
+        <v>-0.350739522497007</v>
       </c>
       <c r="L57" t="n">
-        <v>-0.81910483030833</v>
+        <v>-0.856704096238067</v>
       </c>
       <c r="M57" t="n">
-        <v>0.123255105180206</v>
+        <v>0</v>
       </c>
       <c r="N57" t="n">
-        <v>-0.196155180804824</v>
+        <v>-0.295982719406757</v>
       </c>
       <c r="O57" t="inlineStr">
         <is>
@@ -5559,7 +5551,7 @@
       </c>
       <c r="P57" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>Very unlikely improving</t>
         </is>
       </c>
       <c r="Q57" t="n">

--- a/trend_results/Rivers/RangitikeiatPukeokahu_8c9572fbb5.xlsx
+++ b/trend_results/Rivers/RangitikeiatPukeokahu_8c9572fbb5.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="570" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="609" uniqueCount="73">
   <si>
     <t>site name</t>
   </si>
@@ -139,12 +139,15 @@
     <t>ok</t>
   </si>
   <si>
+    <t>&lt; 5 Non-censored values</t>
+  </si>
+  <si>
+    <t>&lt; 3 unique values</t>
+  </si>
+  <si>
     <t>WARNING: Sen slope influenced by censored values</t>
   </si>
   <si>
-    <t>&lt; 5 Non-censored values</t>
-  </si>
-  <si>
     <t>WARNING: Sen slope based on tied non-censored values</t>
   </si>
   <si>
@@ -154,49 +157,52 @@
     <t>RepSite</t>
   </si>
   <si>
+    <t>Very likely improving</t>
+  </si>
+  <si>
+    <t>Likely improving</t>
+  </si>
+  <si>
+    <t>Very likely increasing</t>
+  </si>
+  <si>
+    <t>Extremely unlikely improving</t>
+  </si>
+  <si>
+    <t>Not Analysed improving</t>
+  </si>
+  <si>
+    <t>Unlikely improving</t>
+  </si>
+  <si>
+    <t>Likely increasing</t>
+  </si>
+  <si>
+    <t>As likely as not improving</t>
+  </si>
+  <si>
     <t>Extremely likely improving</t>
   </si>
   <si>
-    <t>As likely as not improving</t>
+    <t>Extremely likely increasing</t>
+  </si>
+  <si>
+    <t>Exceptionally unlikely improving</t>
+  </si>
+  <si>
+    <t>Very unlikely improving</t>
+  </si>
+  <si>
+    <t>Unlikely increasing</t>
   </si>
   <si>
     <t>As likely as not increasing</t>
   </si>
   <si>
-    <t>Unlikely improving</t>
-  </si>
-  <si>
-    <t>Extremely unlikely improving</t>
-  </si>
-  <si>
-    <t>Not Analysed improving</t>
-  </si>
-  <si>
     <t>Virtually certain improving</t>
   </si>
   <si>
-    <t>Very unlikely increasing</t>
-  </si>
-  <si>
-    <t>Exceptionally unlikely improving</t>
-  </si>
-  <si>
-    <t>Likely improving</t>
-  </si>
-  <si>
-    <t>Likely increasing</t>
-  </si>
-  <si>
-    <t>Very likely improving</t>
-  </si>
-  <si>
-    <t>Unlikely increasing</t>
-  </si>
-  <si>
     <t>Virtually certain increasing</t>
-  </si>
-  <si>
-    <t>Very unlikely improving</t>
   </si>
   <si>
     <t>Rangitikei District</t>
@@ -584,7 +590,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:W57"/>
+  <dimension ref="A1:W61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -678,37 +684,37 @@
         <v>40</v>
       </c>
       <c r="F2">
-        <v>0.956032547894111</v>
+        <v>0.9365942442563</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0.906976744186046</v>
+        <v>0.844444444444444</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>3.25</v>
+        <v>3.05</v>
       </c>
       <c r="K2">
-        <v>-0.690598739495798</v>
+        <v>-0.512789408866995</v>
       </c>
       <c r="L2">
-        <v>-1.20429336143221</v>
+        <v>-1.15336465317122</v>
       </c>
       <c r="M2">
-        <v>-0.0244477517237469</v>
+        <v>0.0276929811430921</v>
       </c>
       <c r="N2">
-        <v>-21.2491919844861</v>
+        <v>-16.8127675038359</v>
       </c>
       <c r="O2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="P2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="Q2">
         <v>1861326.612</v>
@@ -717,19 +723,19 @@
         <v>5609200.146</v>
       </c>
       <c r="S2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="T2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="U2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="V2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="W2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="3" spans="1:23">
@@ -749,37 +755,37 @@
         <v>40</v>
       </c>
       <c r="F3">
-        <v>0.637027162548105</v>
+        <v>0.772067727895608</v>
       </c>
       <c r="G3">
-        <v>0.15</v>
+        <v>0.151515151515152</v>
       </c>
       <c r="H3">
-        <v>0.6</v>
+        <v>0.727272727272727</v>
       </c>
       <c r="I3">
         <v>3</v>
       </c>
       <c r="J3">
-        <v>2.6</v>
+        <v>2</v>
       </c>
       <c r="K3">
-        <v>0.0369286141490088</v>
+        <v>0.246528220663265</v>
       </c>
       <c r="L3">
-        <v>-0.387955945001602</v>
+        <v>-0.22687281200467</v>
       </c>
       <c r="M3">
-        <v>0.547955918497596</v>
+        <v>0.830276379153546</v>
       </c>
       <c r="N3">
-        <v>1.42033131342342</v>
+        <v>12.3264110331633</v>
       </c>
       <c r="O3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="P3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="Q3">
         <v>1861326.612</v>
@@ -788,19 +794,19 @@
         <v>5609200.146</v>
       </c>
       <c r="S3" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="T3" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="U3" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="V3" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="W3" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="4" spans="1:23">
@@ -820,37 +826,37 @@
         <v>40</v>
       </c>
       <c r="F4">
-        <v>0.5</v>
+        <v>0.913191332787528</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0.892857142857143</v>
+        <v>0.8947368421052631</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>10.835</v>
+        <v>11.09</v>
       </c>
       <c r="K4">
-        <v>-0.0012482911825016</v>
+        <v>0.0932316894270776</v>
       </c>
       <c r="L4">
-        <v>-0.0896279050944558</v>
+        <v>-0.0047765179615526</v>
       </c>
       <c r="M4">
-        <v>0.08694917182701239</v>
+        <v>0.152595370065264</v>
       </c>
       <c r="N4">
-        <v>-0.0115209153899555</v>
+        <v>0.840682501596732</v>
       </c>
       <c r="O4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="P4" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="Q4">
         <v>1861326.612</v>
@@ -859,19 +865,19 @@
         <v>5609200.146</v>
       </c>
       <c r="S4" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="T4" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="U4" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="V4" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="W4" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="5" spans="1:23">
@@ -888,40 +894,40 @@
         <v>0</v>
       </c>
       <c r="E5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F5">
-        <v>0.314596176461339</v>
+        <v>0.0285655078042128</v>
       </c>
       <c r="G5">
-        <v>0.263157894736842</v>
+        <v>0.258620689655172</v>
       </c>
       <c r="H5">
-        <v>0.228070175438596</v>
+        <v>0.224137931034483</v>
       </c>
       <c r="I5">
         <v>1</v>
       </c>
       <c r="J5">
-        <v>0.007</v>
+        <v>0.006</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>0.0004722042663219</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.0006522321428571</v>
+        <v>0.0009727253566854</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>7.87007110536522</v>
       </c>
       <c r="O5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="P5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="Q5">
         <v>1861326.612</v>
@@ -930,19 +936,19 @@
         <v>5609200.146</v>
       </c>
       <c r="S5" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="T5" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="U5" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="V5" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="W5" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="6" spans="1:23">
@@ -962,34 +968,34 @@
         <v>40</v>
       </c>
       <c r="F6">
-        <v>0.040426764377999</v>
+        <v>0.0397732094429801</v>
       </c>
       <c r="G6">
-        <v>0.0350877192982456</v>
+        <v>0.0172413793103448</v>
       </c>
       <c r="H6">
-        <v>0.543859649122807</v>
+        <v>0.655172413793103</v>
       </c>
       <c r="I6">
         <v>1</v>
       </c>
       <c r="J6">
-        <v>30</v>
+        <v>34.2</v>
       </c>
       <c r="K6">
-        <v>5.14965837733695</v>
+        <v>5.47238675958188</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>11.2215946571788</v>
+        <v>11.2629342554471</v>
       </c>
       <c r="N6">
-        <v>17.1655279244565</v>
+        <v>16.0011308759704</v>
       </c>
       <c r="O6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="P6" t="s">
         <v>50</v>
@@ -1001,19 +1007,19 @@
         <v>5609200.146</v>
       </c>
       <c r="S6" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="T6" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="U6" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="V6" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="W6" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="7" spans="1:23">
@@ -1030,19 +1036,19 @@
         <v>0</v>
       </c>
       <c r="E7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G7">
-        <v>0.946428571428571</v>
+        <v>0.929824561403509</v>
       </c>
       <c r="H7">
-        <v>0.142857142857143</v>
+        <v>0.087719298245614</v>
       </c>
       <c r="I7">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="O7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="P7" t="s">
         <v>51</v>
@@ -1054,19 +1060,19 @@
         <v>5609200.146</v>
       </c>
       <c r="S7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="T7" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="U7" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="V7" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="W7" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="8" spans="1:23">
@@ -1083,40 +1089,22 @@
         <v>0</v>
       </c>
       <c r="E8" t="s">
-        <v>41</v>
-      </c>
-      <c r="F8">
-        <v>0.9975502549512441</v>
+        <v>42</v>
       </c>
       <c r="G8">
-        <v>0.736842105263158</v>
+        <v>0.827586206896552</v>
       </c>
       <c r="H8">
-        <v>0.087719298245614</v>
+        <v>0.0344827586206897</v>
       </c>
       <c r="I8">
         <v>1</v>
       </c>
-      <c r="J8">
-        <v>0.001</v>
-      </c>
-      <c r="K8">
-        <v>0</v>
-      </c>
-      <c r="L8">
-        <v>0</v>
-      </c>
-      <c r="M8">
-        <v>0</v>
-      </c>
-      <c r="N8">
-        <v>0</v>
-      </c>
       <c r="O8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="P8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="Q8">
         <v>1861326.612</v>
@@ -1125,19 +1113,19 @@
         <v>5609200.146</v>
       </c>
       <c r="S8" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="T8" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="U8" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="V8" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="W8" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="9" spans="1:23">
@@ -1151,43 +1139,43 @@
         <v>5</v>
       </c>
       <c r="D9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E9" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F9">
-        <v>0.309895078521943</v>
+        <v>0.105528957572494</v>
       </c>
       <c r="G9">
-        <v>0.280701754385965</v>
+        <v>0.258620689655172</v>
       </c>
       <c r="H9">
-        <v>0.543859649122807</v>
+        <v>0.551724137931034</v>
       </c>
       <c r="I9">
         <v>1</v>
       </c>
       <c r="J9">
-        <v>0.011</v>
+        <v>0.0115</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>0.0013725544544741</v>
       </c>
       <c r="L9">
-        <v>-0.0008208578784455</v>
+        <v>0</v>
       </c>
       <c r="M9">
-        <v>0.0019563903800317</v>
+        <v>0.0041203918214996</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>11.9352561258617</v>
       </c>
       <c r="O9" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="P9" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="Q9">
         <v>1861326.612</v>
@@ -1196,19 +1184,19 @@
         <v>5609200.146</v>
       </c>
       <c r="S9" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="T9" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="U9" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="V9" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="W9" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="10" spans="1:23">
@@ -1228,34 +1216,34 @@
         <v>40</v>
       </c>
       <c r="F10">
-        <v>0.058238060370967</v>
+        <v>0.781787351524559</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>0.75</v>
+        <v>0.736842105263158</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>7.9</v>
+        <v>7.88</v>
       </c>
       <c r="K10">
-        <v>-0.0290894522144523</v>
+        <v>0.0179926108374382</v>
       </c>
       <c r="L10">
-        <v>-0.0671410547268485</v>
+        <v>-0.0205196280304612</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>0.0524528827741527</v>
       </c>
       <c r="N10">
-        <v>-0.368220914106991</v>
+        <v>0.228332624840587</v>
       </c>
       <c r="O10" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="P10" t="s">
         <v>53</v>
@@ -1267,16 +1255,16 @@
         <v>5609200.146</v>
       </c>
       <c r="S10" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="T10" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="U10" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="V10" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="11" spans="1:23">
@@ -1293,40 +1281,40 @@
         <v>1</v>
       </c>
       <c r="E11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F11">
-        <v>0.409532448722667</v>
+        <v>0.0162620906326638</v>
       </c>
       <c r="G11">
-        <v>0.0350877192982456</v>
+        <v>0</v>
       </c>
       <c r="H11">
-        <v>0.614035087719298</v>
+        <v>0.706896551724138</v>
       </c>
       <c r="I11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J11">
-        <v>0.015</v>
+        <v>0.0175</v>
       </c>
       <c r="K11">
-        <v>0.0014918318689873</v>
+        <v>0.0024095200181983</v>
       </c>
       <c r="L11">
-        <v>-0.0009938775510204001</v>
+        <v>0.0009092159269436</v>
       </c>
       <c r="M11">
-        <v>0.0026609108437214</v>
+        <v>0.0041795447200238</v>
       </c>
       <c r="N11">
-        <v>9.945545793249179</v>
+        <v>13.7686858182764</v>
       </c>
       <c r="O11" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="P11" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="Q11">
         <v>1861326.612</v>
@@ -1335,19 +1323,19 @@
         <v>5609200.146</v>
       </c>
       <c r="S11" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="T11" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="U11" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="V11" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="W11" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="12" spans="1:23">
@@ -1364,19 +1352,19 @@
         <v>0</v>
       </c>
       <c r="E12" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F12">
-        <v>0.436762265930655</v>
+        <v>0.553624742991226</v>
       </c>
       <c r="G12">
-        <v>0.0175438596491228</v>
+        <v>0</v>
       </c>
       <c r="H12">
-        <v>0.315789473684211</v>
+        <v>0.362068965517241</v>
       </c>
       <c r="I12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J12">
         <v>0.08</v>
@@ -1385,19 +1373,19 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>-0.0057161832304345</v>
+        <v>-0.0077696158241765</v>
       </c>
       <c r="M12">
-        <v>0.007946568363411699</v>
+        <v>0.0063632404181184</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="P12" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="Q12">
         <v>1861326.612</v>
@@ -1406,19 +1394,19 @@
         <v>5609200.146</v>
       </c>
       <c r="S12" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="T12" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="U12" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="V12" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="W12" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="13" spans="1:23">
@@ -1438,37 +1426,37 @@
         <v>40</v>
       </c>
       <c r="F13">
-        <v>0.0059696310539739</v>
+        <v>0.164471610160045</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>0.385964912280702</v>
+        <v>0.396551724137931</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.012</v>
+        <v>0.0115</v>
       </c>
       <c r="K13">
-        <v>0.0014465088482945</v>
+        <v>0.0003753854059609</v>
       </c>
       <c r="L13">
-        <v>0.0004276932084309</v>
+        <v>-0.0002725600206729</v>
       </c>
       <c r="M13">
-        <v>0.0024557244729488</v>
+        <v>0.0013731203007518</v>
       </c>
       <c r="N13">
-        <v>12.0542404024547</v>
+        <v>3.26422092139953</v>
       </c>
       <c r="O13" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="P13" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="Q13">
         <v>1861326.612</v>
@@ -1477,19 +1465,19 @@
         <v>5609200.146</v>
       </c>
       <c r="S13" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="T13" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="U13" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="V13" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="W13" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="14" spans="1:23">
@@ -1509,34 +1497,34 @@
         <v>40</v>
       </c>
       <c r="F14">
-        <v>0.7796601336658699</v>
+        <v>0.984620084734992</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>0.947368421052632</v>
+        <v>0.931034482758621</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.9399999999999999</v>
+        <v>0.805</v>
       </c>
       <c r="K14">
-        <v>-0.0513369815668203</v>
+        <v>-0.107786720321932</v>
       </c>
       <c r="L14">
-        <v>-0.167824919404734</v>
+        <v>-0.193823916880818</v>
       </c>
       <c r="M14">
-        <v>0.0583895621048569</v>
+        <v>-0.0353626910082751</v>
       </c>
       <c r="N14">
-        <v>-5.46138101774684</v>
+        <v>-13.3896546983766</v>
       </c>
       <c r="O14" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="P14" t="s">
         <v>55</v>
@@ -1548,19 +1536,19 @@
         <v>5609200.146</v>
       </c>
       <c r="S14" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="T14" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="U14" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="V14" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="W14" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="15" spans="1:23">
@@ -1580,37 +1568,37 @@
         <v>40</v>
       </c>
       <c r="F15">
-        <v>0.577695443772118</v>
+        <v>0.177672371535747</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.797872340425532</v>
+        <v>0.815217391304348</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>2.85</v>
+        <v>2.675</v>
       </c>
       <c r="K15">
-        <v>-0.017869373776908</v>
+        <v>0.08801409235807479</v>
       </c>
       <c r="L15">
-        <v>-0.176435266937223</v>
+        <v>-0.0679226739190565</v>
       </c>
       <c r="M15">
-        <v>0.15902377163375</v>
+        <v>0.280782122819061</v>
       </c>
       <c r="N15">
-        <v>-0.62699557111958</v>
+        <v>3.29024644329252</v>
       </c>
       <c r="O15" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="P15" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="Q15">
         <v>1861326.612</v>
@@ -1619,19 +1607,19 @@
         <v>5609200.146</v>
       </c>
       <c r="S15" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="T15" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="U15" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="V15" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="W15" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="16" spans="1:23">
@@ -1651,37 +1639,37 @@
         <v>40</v>
       </c>
       <c r="F16">
-        <v>0.209788292073489</v>
+        <v>0.200546397516818</v>
       </c>
       <c r="G16">
-        <v>0.07526881720430111</v>
+        <v>0.0823529411764706</v>
       </c>
       <c r="H16">
-        <v>0.56989247311828</v>
+        <v>0.5647058823529409</v>
       </c>
       <c r="I16">
         <v>4</v>
       </c>
       <c r="J16">
-        <v>2.7</v>
+        <v>2.5</v>
       </c>
       <c r="K16">
-        <v>-0.09221564289432591</v>
+        <v>-0.09458437646690659</v>
       </c>
       <c r="L16">
-        <v>-0.203463141052824</v>
+        <v>-0.212598146034948</v>
       </c>
       <c r="M16">
-        <v>0.0197176898737277</v>
+        <v>0.0253710416713742</v>
       </c>
       <c r="N16">
-        <v>-3.41539418127133</v>
+        <v>-3.78337505867627</v>
       </c>
       <c r="O16" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="P16" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="Q16">
         <v>1861326.612</v>
@@ -1690,19 +1678,19 @@
         <v>5609200.146</v>
       </c>
       <c r="S16" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="T16" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="U16" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="V16" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="W16" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="17" spans="1:23">
@@ -1722,34 +1710,34 @@
         <v>40</v>
       </c>
       <c r="F17">
-        <v>0.880463943518477</v>
+        <v>0.987638551238132</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.878260869565217</v>
+        <v>0.887931034482759</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>10.94</v>
+        <v>10.945</v>
       </c>
       <c r="K17">
-        <v>0.0248469387755097</v>
+        <v>0.0451003908411731</v>
       </c>
       <c r="L17">
-        <v>-0.0066718022431288</v>
+        <v>0.009456722614474399</v>
       </c>
       <c r="M17">
-        <v>0.0541278641467868</v>
+        <v>0.0730826737648817</v>
       </c>
       <c r="N17">
-        <v>0.227120098496432</v>
+        <v>0.412063872463894</v>
       </c>
       <c r="O17" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="P17" t="s">
         <v>56</v>
@@ -1761,19 +1749,19 @@
         <v>5609200.146</v>
       </c>
       <c r="S17" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="T17" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="U17" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="V17" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="W17" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="18" spans="1:23">
@@ -1790,13 +1778,13 @@
         <v>0</v>
       </c>
       <c r="E18" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F18">
-        <v>0.908859313076861</v>
+        <v>0.952550903548688</v>
       </c>
       <c r="G18">
-        <v>0.153846153846154</v>
+        <v>0.162393162393162</v>
       </c>
       <c r="H18">
         <v>0.11965811965812</v>
@@ -1805,13 +1793,13 @@
         <v>1</v>
       </c>
       <c r="J18">
-        <v>0.008</v>
+        <v>0.007</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>-0.0003152783772119</v>
+        <v>-0.0003078381795195</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1820,10 +1808,10 @@
         <v>0</v>
       </c>
       <c r="O18" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="P18" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="Q18">
         <v>1861326.612</v>
@@ -1832,19 +1820,19 @@
         <v>5609200.146</v>
       </c>
       <c r="S18" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="T18" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="U18" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="V18" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="W18" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="19" spans="1:23">
@@ -1864,37 +1852,37 @@
         <v>40</v>
       </c>
       <c r="F19">
-        <v>0.0013140150074586</v>
+        <v>0.0003517204054567</v>
       </c>
       <c r="G19">
         <v>0.0170940170940171</v>
       </c>
       <c r="H19">
-        <v>0.367521367521368</v>
+        <v>0.461538461538462</v>
       </c>
       <c r="I19">
         <v>1</v>
       </c>
       <c r="J19">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K19">
-        <v>2.51126814362108</v>
+        <v>2.8475839293312</v>
       </c>
       <c r="L19">
-        <v>0.987732256400909</v>
+        <v>1.36567597832013</v>
       </c>
       <c r="M19">
-        <v>3.78715437788018</v>
+        <v>4.26906674868992</v>
       </c>
       <c r="N19">
-        <v>8.659545322831329</v>
+        <v>9.49194643110401</v>
       </c>
       <c r="O19" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="P19" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="Q19">
         <v>1861326.612</v>
@@ -1903,19 +1891,19 @@
         <v>5609200.146</v>
       </c>
       <c r="S19" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="T19" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="U19" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="V19" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="W19" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="20" spans="1:23">
@@ -1932,10 +1920,10 @@
         <v>0</v>
       </c>
       <c r="E20" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F20">
-        <v>0.723426960935764</v>
+        <v>0.629994715149592</v>
       </c>
       <c r="G20">
         <v>0.947826086956522</v>
@@ -1962,10 +1950,10 @@
         <v>0</v>
       </c>
       <c r="O20" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="P20" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="Q20">
         <v>1861326.612</v>
@@ -1974,19 +1962,19 @@
         <v>5609200.146</v>
       </c>
       <c r="S20" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="T20" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="U20" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="V20" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="W20" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="21" spans="1:23">
@@ -2003,16 +1991,16 @@
         <v>0</v>
       </c>
       <c r="E21" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F21">
-        <v>0.940740237972534</v>
+        <v>0.888108659348009</v>
       </c>
       <c r="G21">
-        <v>0.683760683760684</v>
+        <v>0.777777777777778</v>
       </c>
       <c r="H21">
-        <v>0.0598290598290598</v>
+        <v>0.0512820512820513</v>
       </c>
       <c r="I21">
         <v>1</v>
@@ -2033,10 +2021,10 @@
         <v>0</v>
       </c>
       <c r="O21" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="P21" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="Q21">
         <v>1861326.612</v>
@@ -2045,19 +2033,19 @@
         <v>5609200.146</v>
       </c>
       <c r="S21" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="T21" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="U21" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="V21" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="W21" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="22" spans="1:23">
@@ -2074,16 +2062,16 @@
         <v>1</v>
       </c>
       <c r="E22" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F22">
-        <v>0.0146747299615196</v>
+        <v>0.08496109034823041</v>
       </c>
       <c r="G22">
-        <v>0.290598290598291</v>
+        <v>0.273504273504274</v>
       </c>
       <c r="H22">
-        <v>0.478632478632479</v>
+        <v>0.461538461538462</v>
       </c>
       <c r="I22">
         <v>1</v>
@@ -2092,22 +2080,22 @@
         <v>0.012</v>
       </c>
       <c r="K22">
-        <v>0.0003554398598676</v>
+        <v>0</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>0.0009357763757901</v>
+        <v>0.0008471545219574</v>
       </c>
       <c r="N22">
-        <v>2.96199883223044</v>
+        <v>0</v>
       </c>
       <c r="O22" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="P22" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="Q22">
         <v>1861326.612</v>
@@ -2116,19 +2104,19 @@
         <v>5609200.146</v>
       </c>
       <c r="S22" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="T22" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="U22" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="V22" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="W22" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="23" spans="1:23">
@@ -2148,37 +2136,37 @@
         <v>40</v>
       </c>
       <c r="F23">
-        <v>0.234129159437691</v>
+        <v>0.114753246738102</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>0.6</v>
+        <v>0.573913043478261</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>7.91</v>
+        <v>7.92</v>
       </c>
       <c r="K23">
-        <v>-0.0059975369458128</v>
+        <v>-0.0102646370023419</v>
       </c>
       <c r="L23">
-        <v>-0.0194615471921137</v>
+        <v>-0.0225121027609776</v>
       </c>
       <c r="M23">
-        <v>0.0081106767658056</v>
+        <v>0.0036657955736238</v>
       </c>
       <c r="N23">
-        <v>-0.07582221170433449</v>
+        <v>-0.129604002554821</v>
       </c>
       <c r="O23" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="P23" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="Q23">
         <v>1861326.612</v>
@@ -2187,16 +2175,16 @@
         <v>5609200.146</v>
       </c>
       <c r="S23" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="T23" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="U23" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="V23" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="24" spans="1:23">
@@ -2213,40 +2201,40 @@
         <v>1</v>
       </c>
       <c r="E24" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F24">
-        <v>0.138684003253847</v>
+        <v>0.303269338234323</v>
       </c>
       <c r="G24">
         <v>0.0598290598290598</v>
       </c>
       <c r="H24">
-        <v>0.512820512820513</v>
+        <v>0.47008547008547</v>
       </c>
       <c r="I24">
         <v>1</v>
       </c>
       <c r="J24">
-        <v>0.016</v>
+        <v>0.0183</v>
       </c>
       <c r="K24">
-        <v>0.000799671592775</v>
+        <v>0.0005001141031492</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>-0.0002251173905595</v>
       </c>
       <c r="M24">
-        <v>0.0014910114042543</v>
+        <v>0.0010114870348466</v>
       </c>
       <c r="N24">
-        <v>4.99794745484401</v>
+        <v>2.73286395163523</v>
       </c>
       <c r="O24" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="P24" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="Q24">
         <v>1861326.612</v>
@@ -2255,19 +2243,19 @@
         <v>5609200.146</v>
       </c>
       <c r="S24" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="T24" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="U24" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="V24" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="W24" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="25" spans="1:23">
@@ -2284,40 +2272,40 @@
         <v>1</v>
       </c>
       <c r="E25" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F25">
-        <v>0.393501470432972</v>
+        <v>0.362291901293257</v>
       </c>
       <c r="G25">
         <v>0.0512820512820513</v>
       </c>
       <c r="H25">
-        <v>0.333333333333333</v>
+        <v>0.264957264957265</v>
       </c>
       <c r="I25">
         <v>1</v>
       </c>
       <c r="J25">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>-0.0019991789819376</v>
+        <v>-0.001661737943585</v>
       </c>
       <c r="M25">
-        <v>0.0028333399202081</v>
+        <v>0.0031068736589455</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="P25" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="Q25">
         <v>1861326.612</v>
@@ -2326,19 +2314,19 @@
         <v>5609200.146</v>
       </c>
       <c r="S25" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="T25" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="U25" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="V25" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="W25" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="26" spans="1:23">
@@ -2352,19 +2340,19 @@
         <v>10</v>
       </c>
       <c r="D26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E26" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="F26">
-        <v>0.0270955016430145</v>
+        <v>0.27596038685635</v>
       </c>
       <c r="G26">
         <v>0.0170940170940171</v>
       </c>
       <c r="H26">
-        <v>0.205128205128205</v>
+        <v>0.222222222222222</v>
       </c>
       <c r="I26">
         <v>1</v>
@@ -2373,22 +2361,22 @@
         <v>0.011</v>
       </c>
       <c r="K26">
-        <v>0.0003286847296504</v>
+        <v>0</v>
       </c>
       <c r="L26">
-        <v>0</v>
+        <v>-0.0001956255265536</v>
       </c>
       <c r="M26">
-        <v>0.0006190687655533</v>
+        <v>0.000427041951489</v>
       </c>
       <c r="N26">
-        <v>2.98804299682224</v>
+        <v>0</v>
       </c>
       <c r="O26" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="P26" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="Q26">
         <v>1861326.612</v>
@@ -2397,19 +2385,19 @@
         <v>5609200.146</v>
       </c>
       <c r="S26" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="T26" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="U26" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="V26" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="W26" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="27" spans="1:23">
@@ -2429,37 +2417,37 @@
         <v>40</v>
       </c>
       <c r="F27">
-        <v>0.278204117370759</v>
+        <v>0.712822722668818</v>
       </c>
       <c r="G27">
         <v>0</v>
       </c>
       <c r="H27">
-        <v>0.82051282051282</v>
+        <v>0.794871794871795</v>
       </c>
       <c r="I27">
         <v>0</v>
       </c>
       <c r="J27">
-        <v>0.9399999999999999</v>
+        <v>0.91</v>
       </c>
       <c r="K27">
-        <v>0.0100205761316872</v>
+        <v>-0.0149794941900205</v>
       </c>
       <c r="L27">
-        <v>-0.0203698861226463</v>
+        <v>-0.0399658709767021</v>
       </c>
       <c r="M27">
-        <v>0.0371657043982903</v>
+        <v>0.0149975275911655</v>
       </c>
       <c r="N27">
-        <v>1.06601873741353</v>
+        <v>-1.64609826263962</v>
       </c>
       <c r="O27" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="P27" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="Q27">
         <v>1861326.612</v>
@@ -2468,19 +2456,19 @@
         <v>5609200.146</v>
       </c>
       <c r="S27" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="T27" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="U27" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="V27" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="W27" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="28" spans="1:23">
@@ -2500,37 +2488,37 @@
         <v>40</v>
       </c>
       <c r="F28">
-        <v>0.0057384072681969</v>
+        <v>0.0215325058813061</v>
       </c>
       <c r="G28">
         <v>0</v>
       </c>
       <c r="H28">
-        <v>0.680851063829787</v>
+        <v>0.664335664335664</v>
       </c>
       <c r="I28">
         <v>0</v>
       </c>
       <c r="J28">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="K28">
-        <v>0.119524369502197</v>
+        <v>0.09566071428571429</v>
       </c>
       <c r="L28">
-        <v>0.0391898744480867</v>
+        <v>0.0146304115946009</v>
       </c>
       <c r="M28">
-        <v>0.210592559201818</v>
+        <v>0.18655770291009</v>
       </c>
       <c r="N28">
-        <v>4.87854569396722</v>
+        <v>3.82642857142857</v>
       </c>
       <c r="O28" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="P28" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="Q28">
         <v>1861326.612</v>
@@ -2539,19 +2527,19 @@
         <v>5609200.146</v>
       </c>
       <c r="S28" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="T28" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="U28" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="V28" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="W28" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="29" spans="1:23">
@@ -2568,40 +2556,40 @@
         <v>1</v>
       </c>
       <c r="E29" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F29">
-        <v>0.477047677507167</v>
+        <v>0.597410666529348</v>
       </c>
       <c r="G29">
-        <v>0.0748299319727891</v>
+        <v>0.0785714285714286</v>
       </c>
       <c r="H29">
-        <v>0.482993197278912</v>
+        <v>0.478571428571429</v>
       </c>
       <c r="I29">
         <v>6</v>
       </c>
       <c r="J29">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="K29">
         <v>0</v>
       </c>
       <c r="L29">
-        <v>-0.0665964873919465</v>
+        <v>-0.0564325281990079</v>
       </c>
       <c r="M29">
-        <v>0.0497067439247494</v>
+        <v>0.0691125575800232</v>
       </c>
       <c r="N29">
         <v>0</v>
       </c>
       <c r="O29" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="P29" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="Q29">
         <v>1861326.612</v>
@@ -2610,19 +2598,19 @@
         <v>5609200.146</v>
       </c>
       <c r="S29" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="T29" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="U29" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="V29" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="W29" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="30" spans="1:23">
@@ -2642,37 +2630,37 @@
         <v>40</v>
       </c>
       <c r="F30">
-        <v>0.240657027791517</v>
+        <v>0.58829486737268</v>
       </c>
       <c r="G30">
         <v>0</v>
       </c>
       <c r="H30">
-        <v>0.827586206896552</v>
+        <v>0.834285714285714</v>
       </c>
       <c r="I30">
         <v>0</v>
       </c>
       <c r="J30">
-        <v>10.975</v>
+        <v>11</v>
       </c>
       <c r="K30">
-        <v>-0.0066895604395603</v>
+        <v>0.0023636140798117</v>
       </c>
       <c r="L30">
-        <v>-0.0266545272802461</v>
+        <v>-0.0133301504560362</v>
       </c>
       <c r="M30">
-        <v>0.0121767884689851</v>
+        <v>0.0248691188511346</v>
       </c>
       <c r="N30">
-        <v>-0.0609527147112556</v>
+        <v>0.0214874007255618</v>
       </c>
       <c r="O30" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="P30" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="Q30">
         <v>1861326.612</v>
@@ -2681,19 +2669,19 @@
         <v>5609200.146</v>
       </c>
       <c r="S30" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="T30" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="U30" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="V30" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="W30" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="31" spans="1:23">
@@ -2713,10 +2701,10 @@
         <v>40</v>
       </c>
       <c r="F31">
-        <v>0.0007584536325091</v>
+        <v>0.0068538422819053</v>
       </c>
       <c r="G31">
-        <v>0.259887005649718</v>
+        <v>0.23728813559322</v>
       </c>
       <c r="H31">
         <v>0.0903954802259887</v>
@@ -2728,22 +2716,22 @@
         <v>0.007</v>
       </c>
       <c r="K31">
-        <v>0.000146363742126</v>
+        <v>7.41322465585658E-05</v>
       </c>
       <c r="L31">
         <v>0</v>
       </c>
       <c r="M31">
-        <v>0.0002731862378459</v>
+        <v>0.0002259480723759</v>
       </c>
       <c r="N31">
-        <v>2.09091060180091</v>
+        <v>1.0590320936938</v>
       </c>
       <c r="O31" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="P31" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="Q31">
         <v>1861326.612</v>
@@ -2752,19 +2740,19 @@
         <v>5609200.146</v>
       </c>
       <c r="S31" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="T31" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="U31" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="V31" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="W31" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="32" spans="1:23">
@@ -2784,37 +2772,37 @@
         <v>40</v>
       </c>
       <c r="F32">
-        <v>0.11777506245728</v>
+        <v>0.259034219195026</v>
       </c>
       <c r="G32">
         <v>0.0112994350282486</v>
       </c>
       <c r="H32">
-        <v>0.418079096045198</v>
+        <v>0.474576271186441</v>
       </c>
       <c r="I32">
         <v>1</v>
       </c>
       <c r="J32">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="K32">
-        <v>0.501034698991739</v>
+        <v>0.121671169079327</v>
       </c>
       <c r="L32">
-        <v>0</v>
+        <v>-0.440131769672843</v>
       </c>
       <c r="M32">
-        <v>1.26493506493507</v>
+        <v>1.11064612535195</v>
       </c>
       <c r="N32">
-        <v>1.85568407033977</v>
+        <v>0.405570563597758</v>
       </c>
       <c r="O32" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="P32" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="Q32">
         <v>1861326.612</v>
@@ -2823,19 +2811,19 @@
         <v>5609200.146</v>
       </c>
       <c r="S32" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="T32" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="U32" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="V32" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="W32" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="33" spans="1:23">
@@ -2852,16 +2840,16 @@
         <v>0</v>
       </c>
       <c r="E33" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F33">
-        <v>0.99069576022039</v>
+        <v>0.99886578480469</v>
       </c>
       <c r="G33">
-        <v>0.868571428571429</v>
+        <v>0.862857142857143</v>
       </c>
       <c r="H33">
-        <v>0.211428571428571</v>
+        <v>0.217142857142857</v>
       </c>
       <c r="I33">
         <v>15</v>
@@ -2882,10 +2870,10 @@
         <v>0</v>
       </c>
       <c r="O33" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="P33" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="Q33">
         <v>1861326.612</v>
@@ -2894,19 +2882,19 @@
         <v>5609200.146</v>
       </c>
       <c r="S33" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="T33" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="U33" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="V33" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="W33" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="34" spans="1:23">
@@ -2923,16 +2911,16 @@
         <v>0</v>
       </c>
       <c r="E34" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F34">
-        <v>0.921445695982704</v>
+        <v>0.970874349150882</v>
       </c>
       <c r="G34">
-        <v>0.688622754491018</v>
+        <v>0.700564971751412</v>
       </c>
       <c r="H34">
-        <v>0.0538922155688623</v>
+        <v>0.0508474576271186</v>
       </c>
       <c r="I34">
         <v>2</v>
@@ -2953,10 +2941,10 @@
         <v>0</v>
       </c>
       <c r="O34" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="P34" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="Q34">
         <v>1861326.612</v>
@@ -2965,19 +2953,19 @@
         <v>5609200.146</v>
       </c>
       <c r="S34" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="T34" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="U34" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="V34" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="W34" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="35" spans="1:23">
@@ -2994,16 +2982,16 @@
         <v>1</v>
       </c>
       <c r="E35" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F35">
-        <v>0.0145872249754868</v>
+        <v>0.017315059353003</v>
       </c>
       <c r="G35">
-        <v>0.29940119760479</v>
+        <v>0.293785310734463</v>
       </c>
       <c r="H35">
-        <v>0.389221556886228</v>
+        <v>0.384180790960452</v>
       </c>
       <c r="I35">
         <v>1</v>
@@ -3018,13 +3006,13 @@
         <v>0</v>
       </c>
       <c r="M35">
-        <v>0.0004166113905978</v>
+        <v>0.0003561417981626</v>
       </c>
       <c r="N35">
         <v>0</v>
       </c>
       <c r="O35" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="P35" t="s">
         <v>50</v>
@@ -3036,19 +3024,19 @@
         <v>5609200.146</v>
       </c>
       <c r="S35" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="T35" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="U35" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="V35" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="W35" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="36" spans="1:23">
@@ -3068,37 +3056,37 @@
         <v>40</v>
       </c>
       <c r="F36">
-        <v>0.998064481300176</v>
+        <v>0.760700955500594</v>
       </c>
       <c r="G36">
         <v>0</v>
       </c>
       <c r="H36">
-        <v>0.563218390804598</v>
+        <v>0.52</v>
       </c>
       <c r="I36">
         <v>0</v>
       </c>
       <c r="J36">
-        <v>7.895</v>
+        <v>7.91</v>
       </c>
       <c r="K36">
-        <v>0.021046818727491</v>
+        <v>0.0037538540596093</v>
       </c>
       <c r="L36">
-        <v>0.0089761114447194</v>
+        <v>-0.0054702863815419</v>
       </c>
       <c r="M36">
-        <v>0.0324583238042675</v>
+        <v>0.0133347090608046</v>
       </c>
       <c r="N36">
-        <v>0.266584151076517</v>
+        <v>0.0474570677573878</v>
       </c>
       <c r="O36" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="P36" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="Q36">
         <v>1861326.612</v>
@@ -3107,16 +3095,16 @@
         <v>5609200.146</v>
       </c>
       <c r="S36" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="T36" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="U36" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="V36" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="37" spans="1:23">
@@ -3133,40 +3121,40 @@
         <v>1</v>
       </c>
       <c r="E37" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F37">
-        <v>0.5874704598191191</v>
+        <v>0.523479039100752</v>
       </c>
       <c r="G37">
-        <v>0.0451977401129944</v>
+        <v>0.0395480225988701</v>
       </c>
       <c r="H37">
-        <v>0.5310734463276841</v>
+        <v>0.536723163841808</v>
       </c>
       <c r="I37">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J37">
-        <v>0.021</v>
+        <v>0.022</v>
       </c>
       <c r="K37">
         <v>0</v>
       </c>
       <c r="L37">
-        <v>-0.000365393425148</v>
+        <v>-0.0003128319048559</v>
       </c>
       <c r="M37">
-        <v>0.0004208083859809</v>
+        <v>0.0005005998582557</v>
       </c>
       <c r="N37">
         <v>0</v>
       </c>
       <c r="O37" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="P37" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="Q37">
         <v>1861326.612</v>
@@ -3175,19 +3163,19 @@
         <v>5609200.146</v>
       </c>
       <c r="S37" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="T37" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="U37" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="V37" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="W37" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="38" spans="1:23">
@@ -3207,10 +3195,10 @@
         <v>40</v>
       </c>
       <c r="F38">
-        <v>0.992387777953898</v>
+        <v>0.998994386043306</v>
       </c>
       <c r="G38">
-        <v>0.0451977401129944</v>
+        <v>0.0338983050847458</v>
       </c>
       <c r="H38">
         <v>0.389830508474576</v>
@@ -3219,25 +3207,25 @@
         <v>1</v>
       </c>
       <c r="J38">
-        <v>0.092</v>
+        <v>0.093</v>
       </c>
       <c r="K38">
-        <v>-0.0018609676404808</v>
+        <v>-0.0025839228662711</v>
       </c>
       <c r="L38">
-        <v>-0.0033374894347168</v>
+        <v>-0.0040132441843651</v>
       </c>
       <c r="M38">
-        <v>-0.000200950133656</v>
+        <v>-0.0010132821652106</v>
       </c>
       <c r="N38">
-        <v>-2.02279091356614</v>
+        <v>-2.77841168416248</v>
       </c>
       <c r="O38" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="P38" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="Q38">
         <v>1861326.612</v>
@@ -3246,19 +3234,19 @@
         <v>5609200.146</v>
       </c>
       <c r="S38" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="T38" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="U38" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="V38" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="W38" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="39" spans="1:23">
@@ -3275,13 +3263,13 @@
         <v>1</v>
       </c>
       <c r="E39" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F39">
-        <v>0.599112997738985</v>
+        <v>0.707894128608091</v>
       </c>
       <c r="G39">
-        <v>0.0508474576271186</v>
+        <v>0.0451977401129944</v>
       </c>
       <c r="H39">
         <v>0.19774011299435</v>
@@ -3296,19 +3284,19 @@
         <v>0</v>
       </c>
       <c r="L39">
-        <v>-0.0001516977884086</v>
+        <v>-0.0001939424367709</v>
       </c>
       <c r="M39">
-        <v>0.0001667047010497</v>
+        <v>0.0001172961512872</v>
       </c>
       <c r="N39">
         <v>0</v>
       </c>
       <c r="O39" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="P39" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="Q39">
         <v>1861326.612</v>
@@ -3317,19 +3305,19 @@
         <v>5609200.146</v>
       </c>
       <c r="S39" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="T39" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="U39" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="V39" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="W39" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="40" spans="1:23">
@@ -3346,37 +3334,37 @@
         <v>1</v>
       </c>
       <c r="E40" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="F40">
-        <v>0.5</v>
+        <v>0.930248519374276</v>
       </c>
       <c r="G40">
         <v>0</v>
       </c>
       <c r="H40">
-        <v>0.819209039548023</v>
+        <v>0.813559322033898</v>
       </c>
       <c r="I40">
         <v>0</v>
       </c>
       <c r="J40">
-        <v>0.96</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="K40">
-        <v>0</v>
+        <v>-0.015503377246421</v>
       </c>
       <c r="L40">
-        <v>-0.0159063133021861</v>
+        <v>-0.0333391825977851</v>
       </c>
       <c r="M40">
-        <v>0.0138524327391792</v>
+        <v>0.0012195800720077</v>
       </c>
       <c r="N40">
-        <v>0</v>
+        <v>-1.64929545174691</v>
       </c>
       <c r="O40" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="P40" t="s">
         <v>47</v>
@@ -3388,19 +3376,19 @@
         <v>5609200.146</v>
       </c>
       <c r="S40" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="T40" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="U40" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="V40" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="W40" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="41" spans="1:23">
@@ -3420,13 +3408,13 @@
         <v>40</v>
       </c>
       <c r="F41">
-        <v>0.030554834911202</v>
+        <v>0.016441725522899</v>
       </c>
       <c r="G41">
-        <v>0.0533980582524272</v>
+        <v>0.0558375634517767</v>
       </c>
       <c r="H41">
-        <v>0.548543689320388</v>
+        <v>0.538071065989848</v>
       </c>
       <c r="I41">
         <v>6</v>
@@ -3435,19 +3423,19 @@
         <v>2.7</v>
       </c>
       <c r="K41">
-        <v>-0.0439153211954655</v>
+        <v>-0.0552432702721588</v>
       </c>
       <c r="L41">
-        <v>-0.0787263513269072</v>
+        <v>-0.0933307300957672</v>
       </c>
       <c r="M41">
-        <v>-0.0114272043435639</v>
+        <v>-0.0199866410068501</v>
       </c>
       <c r="N41">
-        <v>-1.62649337760983</v>
+        <v>-2.04604704711699</v>
       </c>
       <c r="O41" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="P41" t="s">
         <v>50</v>
@@ -3459,19 +3447,19 @@
         <v>5609200.146</v>
       </c>
       <c r="S41" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="T41" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="U41" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="V41" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="W41" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="42" spans="1:23">
@@ -3479,49 +3467,49 @@
         <v>23</v>
       </c>
       <c r="B42" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C42">
         <v>20</v>
       </c>
       <c r="D42" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E42" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F42">
-        <v>0.0725450774071594</v>
+        <v>0.209838699904199</v>
       </c>
       <c r="G42">
-        <v>0.271186440677966</v>
+        <v>0</v>
       </c>
       <c r="H42">
-        <v>0.0847457627118644</v>
+        <v>0.82</v>
       </c>
       <c r="I42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J42">
-        <v>0.007</v>
+        <v>11.055</v>
       </c>
       <c r="K42">
-        <v>0</v>
+        <v>-0.0058346645367412</v>
       </c>
       <c r="L42">
-        <v>0</v>
+        <v>-0.0242872461719011</v>
       </c>
       <c r="M42">
-        <v>6.864808446273161E-05</v>
+        <v>0.0100312989023513</v>
       </c>
       <c r="N42">
-        <v>0</v>
+        <v>-0.0527785123178764</v>
       </c>
       <c r="O42" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="P42" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Q42">
         <v>1861326.612</v>
@@ -3530,19 +3518,19 @@
         <v>5609200.146</v>
       </c>
       <c r="S42" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="T42" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="U42" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="V42" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="W42" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="43" spans="1:23">
@@ -3550,7 +3538,7 @@
         <v>23</v>
       </c>
       <c r="B43" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C43">
         <v>20</v>
@@ -3559,37 +3547,37 @@
         <v>0</v>
       </c>
       <c r="E43" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="F43">
-        <v>0.0349693277355885</v>
+        <v>0.0435540481079709</v>
       </c>
       <c r="G43">
-        <v>0.038135593220339</v>
+        <v>0.271186440677966</v>
       </c>
       <c r="H43">
-        <v>0.355932203389831</v>
+        <v>0.076271186440678</v>
       </c>
       <c r="I43">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J43">
-        <v>25</v>
+        <v>0.007</v>
       </c>
       <c r="K43">
-        <v>0.435166867681662</v>
+        <v>0</v>
       </c>
       <c r="L43">
         <v>0</v>
       </c>
       <c r="M43">
-        <v>0.892201985568847</v>
+        <v>8.645706030654769E-05</v>
       </c>
       <c r="N43">
-        <v>1.74066747072665</v>
+        <v>0</v>
       </c>
       <c r="O43" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="P43" t="s">
         <v>50</v>
@@ -3601,19 +3589,19 @@
         <v>5609200.146</v>
       </c>
       <c r="S43" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="T43" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="U43" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="V43" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="W43" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="44" spans="1:23">
@@ -3621,7 +3609,7 @@
         <v>23</v>
       </c>
       <c r="B44" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C44">
         <v>20</v>
@@ -3630,40 +3618,40 @@
         <v>0</v>
       </c>
       <c r="E44" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="F44">
-        <v>0.834688944493437</v>
+        <v>0.0155989054390395</v>
       </c>
       <c r="G44">
-        <v>0.882352941176471</v>
+        <v>0.0296610169491525</v>
       </c>
       <c r="H44">
-        <v>0.190045248868778</v>
+        <v>0.427966101694915</v>
       </c>
       <c r="I44">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="J44">
-        <v>0.005</v>
+        <v>26.1</v>
       </c>
       <c r="K44">
-        <v>0</v>
+        <v>0.5602853330183331</v>
       </c>
       <c r="L44">
-        <v>0</v>
+        <v>0.0257517891251045</v>
       </c>
       <c r="M44">
-        <v>0</v>
+        <v>1.02359552224237</v>
       </c>
       <c r="N44">
-        <v>0</v>
+        <v>2.1466870996871</v>
       </c>
       <c r="O44" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="P44" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="Q44">
         <v>1861326.612</v>
@@ -3672,19 +3660,19 @@
         <v>5609200.146</v>
       </c>
       <c r="S44" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="T44" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="U44" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="V44" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="W44" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
     </row>
     <row r="45" spans="1:23">
@@ -3692,37 +3680,37 @@
         <v>23</v>
       </c>
       <c r="B45" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C45">
         <v>20</v>
       </c>
       <c r="D45" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E45" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="F45">
-        <v>0.459231610947831</v>
+        <v>0.855103433762484</v>
       </c>
       <c r="G45">
-        <v>0.354838709677419</v>
+        <v>0.88412017167382</v>
       </c>
       <c r="H45">
-        <v>0.331797235023041</v>
+        <v>0.184549356223176</v>
       </c>
       <c r="I45">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="J45">
-        <v>0.012</v>
+        <v>0.005</v>
       </c>
       <c r="K45">
         <v>0</v>
       </c>
       <c r="L45">
-        <v>-0.0003120916413454</v>
+        <v>0</v>
       </c>
       <c r="M45">
         <v>0</v>
@@ -3731,10 +3719,10 @@
         <v>0</v>
       </c>
       <c r="O45" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="P45" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="Q45">
         <v>1861326.612</v>
@@ -3743,19 +3731,19 @@
         <v>5609200.146</v>
       </c>
       <c r="S45" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="T45" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="U45" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="V45" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="W45" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="46" spans="1:23">
@@ -3763,7 +3751,7 @@
         <v>23</v>
       </c>
       <c r="B46" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C46">
         <v>20</v>
@@ -3772,40 +3760,40 @@
         <v>1</v>
       </c>
       <c r="E46" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="F46">
-        <v>0.969996387761678</v>
+        <v>0.357845092066599</v>
       </c>
       <c r="G46">
-        <v>0.09375</v>
+        <v>0.331797235023041</v>
       </c>
       <c r="H46">
-        <v>0.459821428571429</v>
+        <v>0.341013824884793</v>
       </c>
       <c r="I46">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J46">
-        <v>0.0228</v>
+        <v>0.013</v>
       </c>
       <c r="K46">
-        <v>-0.0003998905234332</v>
+        <v>0</v>
       </c>
       <c r="L46">
-        <v>-0.0006427242573757</v>
+        <v>-0.0001923988621997</v>
       </c>
       <c r="M46">
-        <v>-9.75694398047E-05</v>
+        <v>0</v>
       </c>
       <c r="N46">
-        <v>-1.75390580453197</v>
+        <v>0</v>
       </c>
       <c r="O46" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="P46" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="Q46">
         <v>1861326.612</v>
@@ -3814,19 +3802,19 @@
         <v>5609200.146</v>
       </c>
       <c r="S46" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="T46" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="U46" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="V46" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="W46" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="47" spans="1:23">
@@ -3834,49 +3822,49 @@
         <v>23</v>
       </c>
       <c r="B47" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C47">
         <v>20</v>
       </c>
       <c r="D47" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E47" t="s">
         <v>40</v>
       </c>
       <c r="F47">
-        <v>0.0438337722808072</v>
+        <v>0.999862975167915</v>
       </c>
       <c r="G47">
         <v>0</v>
       </c>
       <c r="H47">
-        <v>0.75</v>
+        <v>0.533653846153846</v>
       </c>
       <c r="I47">
         <v>0</v>
       </c>
       <c r="J47">
-        <v>0.891</v>
+        <v>7.88</v>
       </c>
       <c r="K47">
-        <v>0.008119628015420099</v>
+        <v>0.0185748959778087</v>
       </c>
       <c r="L47">
-        <v>0.0001732759390289</v>
+        <v>0.0102984022556392</v>
       </c>
       <c r="M47">
-        <v>0.0166487426438961</v>
+        <v>0.0268585809681812</v>
       </c>
       <c r="N47">
-        <v>0.91129382889115</v>
+        <v>0.235722030175237</v>
       </c>
       <c r="O47" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="P47" t="s">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="Q47">
         <v>1861326.612</v>
@@ -3885,19 +3873,16 @@
         <v>5609200.146</v>
       </c>
       <c r="S47" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="T47" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="U47" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="V47" t="s">
-        <v>64</v>
-      </c>
-      <c r="W47" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
     <row r="48" spans="1:23">
@@ -3905,46 +3890,46 @@
         <v>23</v>
       </c>
       <c r="B48" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C48">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="D48" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E48" t="s">
         <v>40</v>
       </c>
       <c r="F48">
-        <v>0.59675202974633</v>
+        <v>0.923462887819368</v>
       </c>
       <c r="G48">
-        <v>0</v>
+        <v>0.0889830508474576</v>
       </c>
       <c r="H48">
-        <v>1</v>
+        <v>0.449152542372881</v>
       </c>
       <c r="I48">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J48">
-        <v>0.57</v>
+        <v>0.0223</v>
       </c>
       <c r="K48">
-        <v>0.0033736179540309</v>
+        <v>-0.0002933307320219</v>
       </c>
       <c r="L48">
-        <v>-0.08990904810023929</v>
+        <v>-0.0005314081647794</v>
       </c>
       <c r="M48">
-        <v>0.0538170771286143</v>
+        <v>0</v>
       </c>
       <c r="N48">
-        <v>0.591862798952804</v>
+        <v>-1.31538444852883</v>
       </c>
       <c r="O48" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="P48" t="s">
         <v>47</v>
@@ -3956,66 +3941,69 @@
         <v>5609200.146</v>
       </c>
       <c r="S48" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="T48" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="U48" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="V48" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="49" spans="1:22">
+        <v>66</v>
+      </c>
+      <c r="W48" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="49" spans="1:23">
       <c r="A49" t="s">
         <v>23</v>
       </c>
       <c r="B49" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C49">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="D49" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E49" t="s">
         <v>40</v>
       </c>
       <c r="F49">
-        <v>0.768783636774762</v>
+        <v>0.876192257873693</v>
       </c>
       <c r="G49">
-        <v>0</v>
+        <v>0.0657276995305164</v>
       </c>
       <c r="H49">
+        <v>0.338028169014085</v>
+      </c>
+      <c r="I49">
         <v>1</v>
       </c>
-      <c r="I49">
-        <v>0</v>
-      </c>
       <c r="J49">
-        <v>117.65</v>
+        <v>0.09</v>
       </c>
       <c r="K49">
-        <v>2.08841385800901</v>
+        <v>-0.0004174285714285</v>
       </c>
       <c r="L49">
-        <v>-6.68539581762725</v>
+        <v>-0.0016585155564703</v>
       </c>
       <c r="M49">
-        <v>7.75888093989273</v>
+        <v>0</v>
       </c>
       <c r="N49">
-        <v>1.77510740162262</v>
+        <v>-0.463809523809524</v>
       </c>
       <c r="O49" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="P49" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="Q49">
         <v>1861326.612</v>
@@ -4024,134 +4012,140 @@
         <v>5609200.146</v>
       </c>
       <c r="S49" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="T49" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="U49" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="V49" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="50" spans="1:22">
+        <v>66</v>
+      </c>
+      <c r="W49" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="50" spans="1:23">
       <c r="A50" t="s">
         <v>23</v>
       </c>
       <c r="B50" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C50">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="D50" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E50" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="F50">
-        <v>0.59675202974633</v>
+        <v>0.610717254836709</v>
       </c>
       <c r="G50">
-        <v>0</v>
+        <v>0.0516431924882629</v>
       </c>
       <c r="H50">
+        <v>0.173708920187793</v>
+      </c>
+      <c r="I50">
+        <v>2</v>
+      </c>
+      <c r="J50">
+        <v>0.011</v>
+      </c>
+      <c r="K50">
+        <v>0</v>
+      </c>
+      <c r="L50">
+        <v>-0.0001250907973383</v>
+      </c>
+      <c r="M50">
+        <v>9.99589490968802E-05</v>
+      </c>
+      <c r="N50">
+        <v>0</v>
+      </c>
+      <c r="O50" t="s">
+        <v>46</v>
+      </c>
+      <c r="P50" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q50">
+        <v>1861326.612</v>
+      </c>
+      <c r="R50">
+        <v>5609200.146</v>
+      </c>
+      <c r="S50" t="s">
+        <v>63</v>
+      </c>
+      <c r="T50" t="s">
+        <v>64</v>
+      </c>
+      <c r="U50" t="s">
+        <v>65</v>
+      </c>
+      <c r="V50" t="s">
+        <v>66</v>
+      </c>
+      <c r="W50" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="51" spans="1:23">
+      <c r="A51" t="s">
+        <v>23</v>
+      </c>
+      <c r="B51" t="s">
+        <v>36</v>
+      </c>
+      <c r="C51">
+        <v>20</v>
+      </c>
+      <c r="D51" t="b">
         <v>1</v>
-      </c>
-      <c r="I50">
-        <v>0</v>
-      </c>
-      <c r="J50">
-        <v>6.18</v>
-      </c>
-      <c r="K50">
-        <v>0.274062898253179</v>
-      </c>
-      <c r="L50">
-        <v>-0.903871997272985</v>
-      </c>
-      <c r="M50">
-        <v>0.9280519968006929</v>
-      </c>
-      <c r="N50">
-        <v>4.43467472901584</v>
-      </c>
-      <c r="O50" t="s">
-        <v>45</v>
-      </c>
-      <c r="P50" t="s">
-        <v>47</v>
-      </c>
-      <c r="Q50">
-        <v>1861326.612</v>
-      </c>
-      <c r="R50">
-        <v>5609200.146</v>
-      </c>
-      <c r="S50" t="s">
-        <v>61</v>
-      </c>
-      <c r="T50" t="s">
-        <v>62</v>
-      </c>
-      <c r="U50" t="s">
-        <v>63</v>
-      </c>
-      <c r="V50" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="51" spans="1:22">
-      <c r="A51" t="s">
-        <v>23</v>
-      </c>
-      <c r="B51" t="s">
-        <v>37</v>
-      </c>
-      <c r="C51">
-        <v>10</v>
-      </c>
-      <c r="D51" t="b">
-        <v>0</v>
       </c>
       <c r="E51" t="s">
         <v>40</v>
       </c>
       <c r="F51">
-        <v>0.141565435331173</v>
+        <v>0.100974597973525</v>
       </c>
       <c r="G51">
         <v>0</v>
       </c>
       <c r="H51">
-        <v>1</v>
+        <v>0.7669491525423729</v>
       </c>
       <c r="I51">
         <v>0</v>
       </c>
       <c r="J51">
-        <v>0.5705</v>
+        <v>0.855</v>
       </c>
       <c r="K51">
-        <v>-0.0055763358778626</v>
+        <v>0.0055100712486395</v>
       </c>
       <c r="L51">
-        <v>-0.02998886943292</v>
+        <v>-0.0020039419883046</v>
       </c>
       <c r="M51">
-        <v>0.0046832262187652</v>
+        <v>0.0138199430271959</v>
       </c>
       <c r="N51">
-        <v>-0.97744713021255</v>
+        <v>0.644452777618657</v>
       </c>
       <c r="O51" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="P51" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="Q51">
         <v>1861326.612</v>
@@ -4160,27 +4154,30 @@
         <v>5609200.146</v>
       </c>
       <c r="S51" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="T51" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="U51" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="V51" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="52" spans="1:22">
+        <v>66</v>
+      </c>
+      <c r="W51" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="52" spans="1:23">
       <c r="A52" t="s">
         <v>23</v>
       </c>
       <c r="B52" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C52">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D52" t="b">
         <v>0</v>
@@ -4189,37 +4186,37 @@
         <v>40</v>
       </c>
       <c r="F52">
-        <v>0.816383805979686</v>
+        <v>0.889664319040077</v>
       </c>
       <c r="G52">
         <v>0</v>
       </c>
       <c r="H52">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="I52">
         <v>0</v>
       </c>
       <c r="J52">
-        <v>114</v>
+        <v>0.571</v>
       </c>
       <c r="K52">
-        <v>0.515162200282087</v>
+        <v>0.0388448551525138</v>
       </c>
       <c r="L52">
-        <v>-0.820877887310097</v>
+        <v>-0.0468623139390615</v>
       </c>
       <c r="M52">
-        <v>1.42028680263843</v>
+        <v>0.09186217546275451</v>
       </c>
       <c r="N52">
-        <v>0.451896666914112</v>
+        <v>6.80295186558911</v>
       </c>
       <c r="O52" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="P52" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="Q52">
         <v>1861326.612</v>
@@ -4228,27 +4225,27 @@
         <v>5609200.146</v>
       </c>
       <c r="S52" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="T52" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="U52" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="V52" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="53" spans="1:22">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="53" spans="1:23">
       <c r="A53" t="s">
         <v>23</v>
       </c>
       <c r="B53" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C53">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D53" t="b">
         <v>0</v>
@@ -4257,7 +4254,7 @@
         <v>40</v>
       </c>
       <c r="F53">
-        <v>0.963180864939849</v>
+        <v>0.768783636774762</v>
       </c>
       <c r="G53">
         <v>0</v>
@@ -4269,25 +4266,25 @@
         <v>0</v>
       </c>
       <c r="J53">
-        <v>5.42</v>
+        <v>119</v>
       </c>
       <c r="K53">
-        <v>0.189610655737705</v>
+        <v>4.15554894835257</v>
       </c>
       <c r="L53">
-        <v>0.0351854734093856</v>
+        <v>-6.68539581762725</v>
       </c>
       <c r="M53">
-        <v>0.321003574486432</v>
+        <v>11.1850568167236</v>
       </c>
       <c r="N53">
-        <v>3.49835158187647</v>
+        <v>3.49205793979208</v>
       </c>
       <c r="O53" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="P53" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="Q53">
         <v>1861326.612</v>
@@ -4296,27 +4293,27 @@
         <v>5609200.146</v>
       </c>
       <c r="S53" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="T53" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="U53" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="V53" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="54" spans="1:22">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="54" spans="1:23">
       <c r="A54" t="s">
         <v>23</v>
       </c>
       <c r="B54" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C54">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="D54" t="b">
         <v>0</v>
@@ -4325,7 +4322,7 @@
         <v>40</v>
       </c>
       <c r="F54">
-        <v>0.456407013592038</v>
+        <v>0.889664319040077</v>
       </c>
       <c r="G54">
         <v>0</v>
@@ -4337,25 +4334,25 @@
         <v>0</v>
       </c>
       <c r="J54">
-        <v>0.5639999999999999</v>
+        <v>6.18</v>
       </c>
       <c r="K54">
-        <v>-0.0005115546218487</v>
+        <v>0.473686562212531</v>
       </c>
       <c r="L54">
-        <v>-0.0107452003637188</v>
+        <v>-0.457278201115691</v>
       </c>
       <c r="M54">
-        <v>0.0067940835425472</v>
+        <v>0.9603677587660659</v>
       </c>
       <c r="N54">
-        <v>-0.090701174086656</v>
+        <v>7.66483110376264</v>
       </c>
       <c r="O54" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="P54" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="Q54">
         <v>1861326.612</v>
@@ -4364,27 +4361,27 @@
         <v>5609200.146</v>
       </c>
       <c r="S54" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="T54" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="U54" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="V54" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="55" spans="1:22">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="55" spans="1:23">
       <c r="A55" t="s">
         <v>23</v>
       </c>
       <c r="B55" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C55">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D55" t="b">
         <v>0</v>
@@ -4393,37 +4390,37 @@
         <v>40</v>
       </c>
       <c r="F55">
-        <v>0.045431216779848</v>
+        <v>0.639742606431872</v>
       </c>
       <c r="G55">
         <v>0</v>
       </c>
       <c r="H55">
-        <v>0.7333333333333329</v>
+        <v>1</v>
       </c>
       <c r="I55">
         <v>0</v>
       </c>
       <c r="J55">
-        <v>118</v>
+        <v>0.5705</v>
       </c>
       <c r="K55">
-        <v>-0.867969501635559</v>
+        <v>0.0065165031222123</v>
       </c>
       <c r="L55">
-        <v>-1.96675192904049</v>
+        <v>-0.012140556444907</v>
       </c>
       <c r="M55">
-        <v>0</v>
+        <v>0.0173835109415539</v>
       </c>
       <c r="N55">
-        <v>-0.735567374267423</v>
+        <v>1.14224419320111</v>
       </c>
       <c r="O55" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="P55" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="Q55">
         <v>1861326.612</v>
@@ -4432,27 +4429,27 @@
         <v>5609200.146</v>
       </c>
       <c r="S55" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="T55" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="U55" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="V55" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="56" spans="1:22">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="56" spans="1:23">
       <c r="A56" t="s">
         <v>23</v>
       </c>
       <c r="B56" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C56">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D56" t="b">
         <v>0</v>
@@ -4461,37 +4458,37 @@
         <v>40</v>
       </c>
       <c r="F56">
-        <v>0.649432865344804</v>
+        <v>0.9560192628459599</v>
       </c>
       <c r="G56">
         <v>0</v>
       </c>
       <c r="H56">
-        <v>0.928571428571429</v>
+        <v>0.9</v>
       </c>
       <c r="I56">
         <v>0</v>
       </c>
       <c r="J56">
-        <v>5.9</v>
+        <v>115.825</v>
       </c>
       <c r="K56">
-        <v>0.0281774349083896</v>
+        <v>1.48879076086957</v>
       </c>
       <c r="L56">
-        <v>-0.106800766625825</v>
+        <v>0.0173413899140315</v>
       </c>
       <c r="M56">
-        <v>0.1432214056081</v>
+        <v>3.15639305043103</v>
       </c>
       <c r="N56">
-        <v>0.477583642515078</v>
+        <v>1.28537946114359</v>
       </c>
       <c r="O56" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="P56" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="Q56">
         <v>1861326.612</v>
@@ -4500,27 +4497,27 @@
         <v>5609200.146</v>
       </c>
       <c r="S56" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="T56" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="U56" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="V56" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="57" spans="1:22">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="57" spans="1:23">
       <c r="A57" t="s">
         <v>23</v>
       </c>
       <c r="B57" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C57">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="D57" t="b">
         <v>0</v>
@@ -4529,55 +4526,327 @@
         <v>40</v>
       </c>
       <c r="F57">
-        <v>0.054872708656691</v>
+        <v>0.963180864939849</v>
       </c>
       <c r="G57">
         <v>0</v>
       </c>
       <c r="H57">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="I57">
         <v>0</v>
       </c>
       <c r="J57">
+        <v>5.82</v>
+      </c>
+      <c r="K57">
+        <v>0.190816013897663</v>
+      </c>
+      <c r="L57">
+        <v>0.0351854734093856</v>
+      </c>
+      <c r="M57">
+        <v>0.370482179155282</v>
+      </c>
+      <c r="N57">
+        <v>3.27862566834472</v>
+      </c>
+      <c r="O57" t="s">
+        <v>46</v>
+      </c>
+      <c r="P57" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q57">
+        <v>1861326.612</v>
+      </c>
+      <c r="R57">
+        <v>5609200.146</v>
+      </c>
+      <c r="S57" t="s">
+        <v>63</v>
+      </c>
+      <c r="T57" t="s">
+        <v>64</v>
+      </c>
+      <c r="U57" t="s">
+        <v>65</v>
+      </c>
+      <c r="V57" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="58" spans="1:23">
+      <c r="A58" t="s">
+        <v>23</v>
+      </c>
+      <c r="B58" t="s">
+        <v>37</v>
+      </c>
+      <c r="C58">
+        <v>15</v>
+      </c>
+      <c r="D58" t="b">
+        <v>0</v>
+      </c>
+      <c r="E58" t="s">
+        <v>40</v>
+      </c>
+      <c r="F58">
+        <v>0.653909613639062</v>
+      </c>
+      <c r="G58">
+        <v>0</v>
+      </c>
+      <c r="H58">
+        <v>1</v>
+      </c>
+      <c r="I58">
+        <v>0</v>
+      </c>
+      <c r="J58">
+        <v>0.57</v>
+      </c>
+      <c r="K58">
+        <v>0.0017427435387673</v>
+      </c>
+      <c r="L58">
+        <v>-0.0065808498017063</v>
+      </c>
+      <c r="M58">
+        <v>0.009405866843817201</v>
+      </c>
+      <c r="N58">
+        <v>0.305744480485505</v>
+      </c>
+      <c r="O58" t="s">
+        <v>46</v>
+      </c>
+      <c r="P58" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q58">
+        <v>1861326.612</v>
+      </c>
+      <c r="R58">
+        <v>5609200.146</v>
+      </c>
+      <c r="S58" t="s">
+        <v>63</v>
+      </c>
+      <c r="T58" t="s">
+        <v>64</v>
+      </c>
+      <c r="U58" t="s">
+        <v>65</v>
+      </c>
+      <c r="V58" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="59" spans="1:23">
+      <c r="A59" t="s">
+        <v>23</v>
+      </c>
+      <c r="B59" t="s">
+        <v>38</v>
+      </c>
+      <c r="C59">
+        <v>15</v>
+      </c>
+      <c r="D59" t="b">
+        <v>0</v>
+      </c>
+      <c r="E59" t="s">
+        <v>40</v>
+      </c>
+      <c r="F59">
+        <v>0.382703490932799</v>
+      </c>
+      <c r="G59">
+        <v>0</v>
+      </c>
+      <c r="H59">
+        <v>0.7333333333333329</v>
+      </c>
+      <c r="I59">
+        <v>0</v>
+      </c>
+      <c r="J59">
+        <v>118</v>
+      </c>
+      <c r="K59">
+        <v>-0.102300311203319</v>
+      </c>
+      <c r="L59">
+        <v>-1.15711412152262</v>
+      </c>
+      <c r="M59">
+        <v>0.9228972799772019</v>
+      </c>
+      <c r="N59">
+        <v>-0.0866951789858636</v>
+      </c>
+      <c r="O59" t="s">
+        <v>46</v>
+      </c>
+      <c r="P59" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q59">
+        <v>1861326.612</v>
+      </c>
+      <c r="R59">
+        <v>5609200.146</v>
+      </c>
+      <c r="S59" t="s">
+        <v>63</v>
+      </c>
+      <c r="T59" t="s">
+        <v>64</v>
+      </c>
+      <c r="U59" t="s">
+        <v>65</v>
+      </c>
+      <c r="V59" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="60" spans="1:23">
+      <c r="A60" t="s">
+        <v>23</v>
+      </c>
+      <c r="B60" t="s">
+        <v>39</v>
+      </c>
+      <c r="C60">
+        <v>15</v>
+      </c>
+      <c r="D60" t="b">
+        <v>0</v>
+      </c>
+      <c r="E60" t="s">
+        <v>40</v>
+      </c>
+      <c r="F60">
+        <v>0.800193851884086</v>
+      </c>
+      <c r="G60">
+        <v>0</v>
+      </c>
+      <c r="H60">
+        <v>0.933333333333333</v>
+      </c>
+      <c r="I60">
+        <v>0</v>
+      </c>
+      <c r="J60">
+        <v>5.9</v>
+      </c>
+      <c r="K60">
+        <v>0.06041540837337</v>
+      </c>
+      <c r="L60">
+        <v>-0.0740764933557499</v>
+      </c>
+      <c r="M60">
+        <v>0.166581594973366</v>
+      </c>
+      <c r="N60">
+        <v>1.02398997243</v>
+      </c>
+      <c r="O60" t="s">
+        <v>46</v>
+      </c>
+      <c r="P60" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q60">
+        <v>1861326.612</v>
+      </c>
+      <c r="R60">
+        <v>5609200.146</v>
+      </c>
+      <c r="S60" t="s">
+        <v>63</v>
+      </c>
+      <c r="T60" t="s">
+        <v>64</v>
+      </c>
+      <c r="U60" t="s">
+        <v>65</v>
+      </c>
+      <c r="V60" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="61" spans="1:23">
+      <c r="A61" t="s">
+        <v>23</v>
+      </c>
+      <c r="B61" t="s">
+        <v>38</v>
+      </c>
+      <c r="C61">
+        <v>20</v>
+      </c>
+      <c r="D61" t="b">
+        <v>0</v>
+      </c>
+      <c r="E61" t="s">
+        <v>40</v>
+      </c>
+      <c r="F61">
+        <v>0.246842617004392</v>
+      </c>
+      <c r="G61">
+        <v>0</v>
+      </c>
+      <c r="H61">
+        <v>0.65</v>
+      </c>
+      <c r="I61">
+        <v>0</v>
+      </c>
+      <c r="J61">
         <v>118.5</v>
       </c>
-      <c r="K57">
-        <v>-0.350739522497007</v>
-      </c>
-      <c r="L57">
-        <v>-0.856704096238067</v>
-      </c>
-      <c r="M57">
-        <v>0</v>
-      </c>
-      <c r="N57">
-        <v>-0.295982719406757</v>
-      </c>
-      <c r="O57" t="s">
-        <v>45</v>
-      </c>
-      <c r="P57" t="s">
-        <v>60</v>
-      </c>
-      <c r="Q57">
-        <v>1861326.612</v>
-      </c>
-      <c r="R57">
-        <v>5609200.146</v>
-      </c>
-      <c r="S57" t="s">
-        <v>61</v>
-      </c>
-      <c r="T57" t="s">
-        <v>62</v>
-      </c>
-      <c r="U57" t="s">
-        <v>63</v>
-      </c>
-      <c r="V57" t="s">
-        <v>64</v>
+      <c r="K61">
+        <v>-0.125667237828048</v>
+      </c>
+      <c r="L61">
+        <v>-0.790696502967528</v>
+      </c>
+      <c r="M61">
+        <v>0.211108147333544</v>
+      </c>
+      <c r="N61">
+        <v>-0.106048301964597</v>
+      </c>
+      <c r="O61" t="s">
+        <v>46</v>
+      </c>
+      <c r="P61" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q61">
+        <v>1861326.612</v>
+      </c>
+      <c r="R61">
+        <v>5609200.146</v>
+      </c>
+      <c r="S61" t="s">
+        <v>63</v>
+      </c>
+      <c r="T61" t="s">
+        <v>64</v>
+      </c>
+      <c r="U61" t="s">
+        <v>65</v>
+      </c>
+      <c r="V61" t="s">
+        <v>66</v>
       </c>
     </row>
   </sheetData>
